--- a/test-data/eeeee/eeeee.xlsx
+++ b/test-data/eeeee/eeeee.xlsx
@@ -15,12 +15,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Distance</t>
   </si>
   <si>
     <t>Mean hardness</t>
+  </si>
+  <si>
+    <t>Roll ID</t>
+  </si>
+  <si>
+    <t>eeeee</t>
   </si>
   <si>
     <t>Hardness</t>
@@ -393,138 +399,144 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B345"/>
+  <dimension ref="A1:C345"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>30.2693992256206</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>30.269</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>0.001</v>
       </c>
       <c r="B3">
-        <v>30.25391471709037</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>30.254</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>0.002</v>
       </c>
       <c r="B4">
-        <v>30.2089914408681</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>30.209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>0.003</v>
       </c>
       <c r="B5">
-        <v>30.13911528022758</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>30.139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>0.004</v>
       </c>
       <c r="B6">
-        <v>30.05142113716926</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>30.051</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>0.005</v>
       </c>
       <c r="B7">
-        <v>29.95480934027006</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>29.955</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>0.006</v>
       </c>
       <c r="B8">
-        <v>29.85934050708854</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>29.859</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>0.007</v>
       </c>
       <c r="B9">
-        <v>29.77539531237344</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>29.775</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>0.008</v>
       </c>
       <c r="B10">
-        <v>29.71285462997162</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>29.713</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11">
-        <v>0.009000000000000001</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="B11">
-        <v>29.68027851537923</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>29.68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>0.01</v>
       </c>
       <c r="B12">
-        <v>29.68438295862369</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>29.684</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>0.011</v>
       </c>
       <c r="B13">
-        <v>29.72947576465645</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>29.729</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>0.012</v>
       </c>
       <c r="B14">
-        <v>29.81732247774178</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>29.817</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>0.013</v>
       </c>
       <c r="B15">
-        <v>29.94698594234908</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>29.947</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>0.014</v>
       </c>
       <c r="B16">
-        <v>30.11484236326652</v>
+        <v>30.115</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -532,7 +544,7 @@
         <v>0.015</v>
       </c>
       <c r="B17">
-        <v>30.31493253184932</v>
+        <v>30.315</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -540,7 +552,7 @@
         <v>0.016</v>
       </c>
       <c r="B18">
-        <v>30.53911501332029</v>
+        <v>30.539</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -548,7 +560,7 @@
         <v>0.017</v>
       </c>
       <c r="B19">
-        <v>30.77748153222574</v>
+        <v>30.777</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -556,7 +568,7 @@
         <v>0.018</v>
       </c>
       <c r="B20">
-        <v>31.01878891862923</v>
+        <v>31.019</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -564,7 +576,7 @@
         <v>0.019</v>
       </c>
       <c r="B21">
-        <v>31.25098387082465</v>
+        <v>31.251</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -572,7 +584,7 @@
         <v>0.02</v>
       </c>
       <c r="B22">
-        <v>31.46162512677671</v>
+        <v>31.462</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -580,7 +592,7 @@
         <v>0.021</v>
       </c>
       <c r="B23">
-        <v>31.63851094589088</v>
+        <v>31.639</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -588,7 +600,7 @@
         <v>0.022</v>
       </c>
       <c r="B24">
-        <v>31.77028169606206</v>
+        <v>31.77</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -596,7 +608,7 @@
         <v>0.023</v>
       </c>
       <c r="B25">
-        <v>31.84698504028048</v>
+        <v>31.847</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -604,7 +616,7 @@
         <v>0.024</v>
       </c>
       <c r="B26">
-        <v>31.86089580609526</v>
+        <v>31.861</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -612,7 +624,7 @@
         <v>0.025</v>
       </c>
       <c r="B27">
-        <v>31.80692423955277</v>
+        <v>31.807</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -620,7 +632,7 @@
         <v>0.026</v>
       </c>
       <c r="B28">
-        <v>31.68322428846179</v>
+        <v>31.683</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -628,7 +640,7 @@
         <v>0.027</v>
       </c>
       <c r="B29">
-        <v>31.49155319661475</v>
+        <v>31.492</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -636,7 +648,7 @@
         <v>0.028</v>
       </c>
       <c r="B30">
-        <v>31.23743821914232</v>
+        <v>31.237</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -644,7 +656,7 @@
         <v>0.029</v>
       </c>
       <c r="B31">
-        <v>30.93011273010553</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -652,7 +664,7 @@
         <v>0.03</v>
       </c>
       <c r="B32">
-        <v>30.58214222145071</v>
+        <v>30.582</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -660,7 +672,7 @@
         <v>0.031</v>
       </c>
       <c r="B33">
-        <v>30.20895166342203</v>
+        <v>30.209</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -668,7 +680,7 @@
         <v>0.032</v>
       </c>
       <c r="B34">
-        <v>29.82783703570885</v>
+        <v>29.828</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -676,7 +688,7 @@
         <v>0.033</v>
       </c>
       <c r="B35">
-        <v>29.45685416235256</v>
+        <v>29.457</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -684,7 +696,7 @@
         <v>0.034</v>
       </c>
       <c r="B36">
-        <v>29.11363449279654</v>
+        <v>29.114</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -692,7 +704,7 @@
         <v>0.035</v>
       </c>
       <c r="B37">
-        <v>28.81401827348123</v>
+        <v>28.814</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -700,7 +712,7 @@
         <v>0.036</v>
       </c>
       <c r="B38">
-        <v>28.57093194002764</v>
+        <v>28.571</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -708,7 +720,7 @@
         <v>0.037</v>
       </c>
       <c r="B39">
-        <v>28.39344433467949</v>
+        <v>28.393</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -716,7 +728,7 @@
         <v>0.038</v>
       </c>
       <c r="B40">
-        <v>28.28617702121719</v>
+        <v>28.286</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -724,7 +736,7 @@
         <v>0.039</v>
       </c>
       <c r="B41">
-        <v>28.24899968930854</v>
+        <v>28.249</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -732,7 +744,7 @@
         <v>0.04</v>
       </c>
       <c r="B42">
-        <v>28.27718865578997</v>
+        <v>28.277</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -740,7 +752,7 @@
         <v>0.041</v>
       </c>
       <c r="B43">
-        <v>28.36200469371618</v>
+        <v>28.362</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -748,7 +760,7 @@
         <v>0.042</v>
       </c>
       <c r="B44">
-        <v>28.49157801126744</v>
+        <v>28.492</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -756,7 +768,7 @@
         <v>0.043</v>
       </c>
       <c r="B45">
-        <v>28.65202613979916</v>
+        <v>28.652</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -764,7 +776,7 @@
         <v>0.044</v>
       </c>
       <c r="B46">
-        <v>28.82863387673029</v>
+        <v>28.829</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -772,7 +784,7 @@
         <v>0.045</v>
       </c>
       <c r="B47">
-        <v>29.00715531308671</v>
+        <v>29.007</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -780,7 +792,7 @@
         <v>0.046</v>
       </c>
       <c r="B48">
-        <v>29.17484753363089</v>
+        <v>29.175</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -788,7 +800,7 @@
         <v>0.047</v>
       </c>
       <c r="B49">
-        <v>29.32131307811994</v>
+        <v>29.321</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -796,7 +808,7 @@
         <v>0.048</v>
       </c>
       <c r="B50">
-        <v>29.43904806914365</v>
+        <v>29.439</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -804,7 +816,7 @@
         <v>0.049</v>
       </c>
       <c r="B51">
-        <v>29.52368119448293</v>
+        <v>29.524</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -812,7 +824,7 @@
         <v>0.05</v>
       </c>
       <c r="B52">
-        <v>29.57390163527104</v>
+        <v>29.574</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -820,7 +832,7 @@
         <v>0.051</v>
       </c>
       <c r="B53">
-        <v>29.5910704649603</v>
+        <v>29.591</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -828,7 +840,7 @@
         <v>0.052</v>
       </c>
       <c r="B54">
-        <v>29.5787026899748</v>
+        <v>29.579</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -836,7 +848,7 @@
         <v>0.053</v>
       </c>
       <c r="B55">
-        <v>29.54183080030025</v>
+        <v>29.542</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -844,7 +856,7 @@
         <v>0.054</v>
       </c>
       <c r="B56">
-        <v>29.48617317837626</v>
+        <v>29.486</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -852,7 +864,7 @@
         <v>0.055</v>
       </c>
       <c r="B57">
-        <v>29.41776291400834</v>
+        <v>29.418</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -860,7 +872,7 @@
         <v>0.056</v>
       </c>
       <c r="B58">
-        <v>29.34225637067921</v>
+        <v>29.342</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -868,7 +880,7 @@
         <v>0.057</v>
       </c>
       <c r="B59">
-        <v>29.26453174286514</v>
+        <v>29.265</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -876,7 +888,7 @@
         <v>0.058</v>
       </c>
       <c r="B60">
-        <v>29.18842909349149</v>
+        <v>29.188</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -884,7 +896,7 @@
         <v>0.059</v>
       </c>
       <c r="B61">
-        <v>29.11667108699407</v>
+        <v>29.117</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -892,7 +904,7 @@
         <v>0.06</v>
       </c>
       <c r="B62">
-        <v>29.05088094148129</v>
+        <v>29.051</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -900,7 +912,7 @@
         <v>0.061</v>
       </c>
       <c r="B63">
-        <v>28.99177380025996</v>
+        <v>28.992</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -908,7 +920,7 @@
         <v>0.062</v>
       </c>
       <c r="B64">
-        <v>28.93934098864805</v>
+        <v>28.939</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -916,7 +928,7 @@
         <v>0.063</v>
       </c>
       <c r="B65">
-        <v>28.89316285329466</v>
+        <v>28.893</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -924,7 +936,7 @@
         <v>0.064</v>
       </c>
       <c r="B66">
-        <v>28.85273000742219</v>
+        <v>28.853</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -932,7 +944,7 @@
         <v>0.065</v>
       </c>
       <c r="B67">
-        <v>28.81740793203029</v>
+        <v>28.817</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -940,7 +952,7 @@
         <v>0.066</v>
       </c>
       <c r="B68">
-        <v>28.78681444967424</v>
+        <v>28.787</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -948,7 +960,7 @@
         <v>0.067</v>
       </c>
       <c r="B69">
-        <v>28.76096464937255</v>
+        <v>28.761</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -956,7 +968,7 @@
         <v>0.068</v>
       </c>
       <c r="B70">
-        <v>28.7403437504898</v>
+        <v>28.74</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -964,7 +976,7 @@
         <v>0.06900000000000001</v>
       </c>
       <c r="B71">
-        <v>28.72602590880046</v>
+        <v>28.726</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -972,23 +984,23 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="B72">
-        <v>28.71961451988141</v>
+        <v>28.72</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>0.07100000000000001</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="B73">
-        <v>28.72316378356732</v>
+        <v>28.723</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>0.07200000000000001</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="B74">
-        <v>28.73904657652556</v>
+        <v>28.739</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -996,7 +1008,7 @@
         <v>0.073</v>
       </c>
       <c r="B75">
-        <v>28.76976190433611</v>
+        <v>28.77</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1004,7 +1016,7 @@
         <v>0.074</v>
       </c>
       <c r="B76">
-        <v>28.81764205222639</v>
+        <v>28.818</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1012,7 +1024,7 @@
         <v>0.075</v>
       </c>
       <c r="B77">
-        <v>28.88473326547021</v>
+        <v>28.885</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1020,7 +1032,7 @@
         <v>0.076</v>
       </c>
       <c r="B78">
-        <v>28.97241880135062</v>
+        <v>28.972</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1028,7 +1040,7 @@
         <v>0.077</v>
       </c>
       <c r="B79">
-        <v>29.08120043810299</v>
+        <v>29.081</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1036,7 +1048,7 @@
         <v>0.078</v>
       </c>
       <c r="B80">
-        <v>29.21050031373948</v>
+        <v>29.211</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1044,7 +1056,7 @@
         <v>0.079</v>
       </c>
       <c r="B81">
-        <v>29.35853214890805</v>
+        <v>29.359</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1052,7 +1064,7 @@
         <v>0.08</v>
       </c>
       <c r="B82">
-        <v>29.52232522222968</v>
+        <v>29.522</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1060,7 +1072,7 @@
         <v>0.081</v>
       </c>
       <c r="B83">
-        <v>29.69780761656579</v>
+        <v>29.698</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1068,7 +1080,7 @@
         <v>0.082</v>
       </c>
       <c r="B84">
-        <v>29.879903626109</v>
+        <v>29.88</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1076,7 +1088,7 @@
         <v>0.083</v>
       </c>
       <c r="B85">
-        <v>30.06301115048276</v>
+        <v>30.063</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1084,7 +1096,7 @@
         <v>0.08400000000000001</v>
       </c>
       <c r="B86">
-        <v>30.24140424977672</v>
+        <v>30.241</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1092,23 +1104,23 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="B87">
-        <v>30.40954941957993</v>
+        <v>30.41</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>0.08600000000000001</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="B88">
-        <v>30.56292150490516</v>
+        <v>30.563</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>0.08700000000000001</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="B89">
-        <v>30.69845477378894</v>
+        <v>30.698</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1116,7 +1128,7 @@
         <v>0.08799999999999999</v>
       </c>
       <c r="B90">
-        <v>30.81380420977071</v>
+        <v>30.814</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1124,7 +1136,7 @@
         <v>0.089</v>
       </c>
       <c r="B91">
-        <v>30.90839164414793</v>
+        <v>30.908</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1132,7 +1144,7 @@
         <v>0.09</v>
       </c>
       <c r="B92">
-        <v>30.98339625612134</v>
+        <v>30.983</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1140,7 +1152,7 @@
         <v>0.091</v>
       </c>
       <c r="B93">
-        <v>31.04066577176077</v>
+        <v>31.041</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1148,7 +1160,7 @@
         <v>0.092</v>
       </c>
       <c r="B94">
-        <v>31.08243096752643</v>
+        <v>31.082</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1156,7 +1168,7 @@
         <v>0.093</v>
       </c>
       <c r="B95">
-        <v>31.11102726735269</v>
+        <v>31.111</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1164,7 +1176,7 @@
         <v>0.094</v>
       </c>
       <c r="B96">
-        <v>31.12818827721308</v>
+        <v>31.128</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1172,7 +1184,7 @@
         <v>0.095</v>
       </c>
       <c r="B97">
-        <v>31.13457763376327</v>
+        <v>31.135</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1180,7 +1192,7 @@
         <v>0.096</v>
       </c>
       <c r="B98">
-        <v>31.12951099956495</v>
+        <v>31.13</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1188,7 +1200,7 @@
         <v>0.097</v>
       </c>
       <c r="B99">
-        <v>31.11085794725087</v>
+        <v>31.111</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1196,7 +1208,7 @@
         <v>0.098</v>
       </c>
       <c r="B100">
-        <v>31.07523223808743</v>
+        <v>31.075</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1204,7 +1216,7 @@
         <v>0.099</v>
       </c>
       <c r="B101">
-        <v>31.01843061368296</v>
+        <v>31.018</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1212,7 +1224,7 @@
         <v>0.1</v>
       </c>
       <c r="B102">
-        <v>30.93615791134685</v>
+        <v>30.936</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1220,7 +1232,7 @@
         <v>0.101</v>
       </c>
       <c r="B103">
-        <v>30.82472044880954</v>
+        <v>30.825</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1228,7 +1240,7 @@
         <v>0.102</v>
       </c>
       <c r="B104">
-        <v>30.6817185387436</v>
+        <v>30.682</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1236,7 +1248,7 @@
         <v>0.103</v>
       </c>
       <c r="B105">
-        <v>30.50685513950531</v>
+        <v>30.507</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1244,7 +1256,7 @@
         <v>0.104</v>
       </c>
       <c r="B106">
-        <v>30.30244203699191</v>
+        <v>30.302</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1252,7 +1264,7 @@
         <v>0.105</v>
       </c>
       <c r="B107">
-        <v>30.07360425569006</v>
+        <v>30.074</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1260,7 +1272,7 @@
         <v>0.106</v>
       </c>
       <c r="B108">
-        <v>29.82835921817888</v>
+        <v>29.828</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1268,7 +1280,7 @@
         <v>0.107</v>
       </c>
       <c r="B109">
-        <v>29.5770616415206</v>
+        <v>29.577</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1276,7 +1288,7 @@
         <v>0.108</v>
       </c>
       <c r="B110">
-        <v>29.33161015249009</v>
+        <v>29.332</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1284,7 +1296,7 @@
         <v>0.109</v>
       </c>
       <c r="B111">
-        <v>29.104393483938</v>
+        <v>29.104</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1292,7 +1304,7 @@
         <v>0.11</v>
       </c>
       <c r="B112">
-        <v>28.90703653551559</v>
+        <v>28.907</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1300,7 +1312,7 @@
         <v>0.111</v>
       </c>
       <c r="B113">
-        <v>28.74923473081117</v>
+        <v>28.749</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1308,7 +1320,7 @@
         <v>0.112</v>
       </c>
       <c r="B114">
-        <v>28.63756425588067</v>
+        <v>28.638</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1316,7 +1328,7 @@
         <v>0.113</v>
       </c>
       <c r="B115">
-        <v>28.57456390498595</v>
+        <v>28.575</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1324,7 +1336,7 @@
         <v>0.114</v>
       </c>
       <c r="B116">
-        <v>28.55824405507397</v>
+        <v>28.558</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1332,7 +1344,7 @@
         <v>0.115</v>
       </c>
       <c r="B117">
-        <v>28.58214468070563</v>
+        <v>28.582</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1340,7 +1352,7 @@
         <v>0.116</v>
       </c>
       <c r="B118">
-        <v>28.63570221824282</v>
+        <v>28.636</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1348,7 +1360,7 @@
         <v>0.117</v>
       </c>
       <c r="B119">
-        <v>28.7050201659284</v>
+        <v>28.705</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1356,7 +1368,7 @@
         <v>0.118</v>
       </c>
       <c r="B120">
-        <v>28.77415854044999</v>
+        <v>28.774</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1364,7 +1376,7 @@
         <v>0.119</v>
       </c>
       <c r="B121">
-        <v>28.8265443585825</v>
+        <v>28.827</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1372,7 +1384,7 @@
         <v>0.12</v>
       </c>
       <c r="B122">
-        <v>28.84659531181862</v>
+        <v>28.847</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1380,7 +1392,7 @@
         <v>0.121</v>
       </c>
       <c r="B123">
-        <v>28.82124341001432</v>
+        <v>28.821</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1388,7 +1400,7 @@
         <v>0.122</v>
       </c>
       <c r="B124">
-        <v>28.74124402807919</v>
+        <v>28.741</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1396,7 +1408,7 @@
         <v>0.123</v>
       </c>
       <c r="B125">
-        <v>28.60211686795454</v>
+        <v>28.602</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1404,7 +1416,7 @@
         <v>0.124</v>
       </c>
       <c r="B126">
-        <v>28.40463886640828</v>
+        <v>28.405</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1412,7 +1424,7 @@
         <v>0.125</v>
       </c>
       <c r="B127">
-        <v>28.15482810581431</v>
+        <v>28.155</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1420,7 +1432,7 @@
         <v>0.126</v>
       </c>
       <c r="B128">
-        <v>27.86345469657044</v>
+        <v>27.863</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1428,7 +1440,7 @@
         <v>0.127</v>
       </c>
       <c r="B129">
-        <v>27.54504652795227</v>
+        <v>27.545</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1436,7 +1448,7 @@
         <v>0.128</v>
       </c>
       <c r="B130">
-        <v>27.21659528118711</v>
+        <v>27.217</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1444,7 +1456,7 @@
         <v>0.129</v>
       </c>
       <c r="B131">
-        <v>26.8960941669936</v>
+        <v>26.896</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1452,7 +1464,7 @@
         <v>0.13</v>
       </c>
       <c r="B132">
-        <v>26.60094842844439</v>
+        <v>26.601</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1460,7 +1472,7 @@
         <v>0.131</v>
       </c>
       <c r="B133">
-        <v>26.34655326194227</v>
+        <v>26.347</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1468,7 +1480,7 @@
         <v>0.132</v>
       </c>
       <c r="B134">
-        <v>26.14527429045594</v>
+        <v>26.145</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1476,7 +1488,7 @@
         <v>0.133</v>
       </c>
       <c r="B135">
-        <v>26.0054940633663</v>
+        <v>26.005</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1484,7 +1496,7 @@
         <v>0.134</v>
       </c>
       <c r="B136">
-        <v>25.93122299035762</v>
+        <v>25.931</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1492,7 +1504,7 @@
         <v>0.135</v>
       </c>
       <c r="B137">
-        <v>25.92227208787756</v>
+        <v>25.922</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1500,7 +1512,7 @@
         <v>0.136</v>
       </c>
       <c r="B138">
-        <v>25.97429188087222</v>
+        <v>25.974</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1508,7 +1520,7 @@
         <v>0.137</v>
       </c>
       <c r="B139">
-        <v>26.07939561009999</v>
+        <v>26.079</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1516,7 +1528,7 @@
         <v>0.138</v>
       </c>
       <c r="B140">
-        <v>26.22810916460789</v>
+        <v>26.228</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1524,7 +1536,7 @@
         <v>0.139</v>
       </c>
       <c r="B141">
-        <v>26.4094661503381</v>
+        <v>26.409</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1532,7 +1544,7 @@
         <v>0.14</v>
       </c>
       <c r="B142">
-        <v>26.61193892213547</v>
+        <v>26.612</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1540,7 +1552,7 @@
         <v>0.141</v>
       </c>
       <c r="B143">
-        <v>26.82505403479452</v>
+        <v>26.825</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1548,7 +1560,7 @@
         <v>0.142</v>
       </c>
       <c r="B144">
-        <v>27.03997538175085</v>
+        <v>27.04</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1556,7 +1568,7 @@
         <v>0.143</v>
       </c>
       <c r="B145">
-        <v>27.24973403622067</v>
+        <v>27.25</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1564,7 +1576,7 @@
         <v>0.144</v>
       </c>
       <c r="B146">
-        <v>27.44959012022843</v>
+        <v>27.45</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1572,7 +1584,7 @@
         <v>0.145</v>
       </c>
       <c r="B147">
-        <v>27.63699939347418</v>
+        <v>27.637</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1580,7 +1592,7 @@
         <v>0.146</v>
       </c>
       <c r="B148">
-        <v>27.81134040243597</v>
+        <v>27.811</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1588,7 +1600,7 @@
         <v>0.147</v>
       </c>
       <c r="B149">
-        <v>27.97352691973132</v>
+        <v>27.974</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1596,7 +1608,7 @@
         <v>0.148</v>
       </c>
       <c r="B150">
-        <v>28.12547927347125</v>
+        <v>28.125</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1604,7 +1616,7 @@
         <v>0.149</v>
       </c>
       <c r="B151">
-        <v>28.26954130739</v>
+        <v>28.27</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1612,7 +1624,7 @@
         <v>0.15</v>
       </c>
       <c r="B152">
-        <v>28.40793069407437</v>
+        <v>28.408</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1620,7 +1632,7 @@
         <v>0.151</v>
       </c>
       <c r="B153">
-        <v>28.54228807444578</v>
+        <v>28.542</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1628,7 +1640,7 @@
         <v>0.152</v>
       </c>
       <c r="B154">
-        <v>28.67342285341519</v>
+        <v>28.673</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1636,7 +1648,7 @@
         <v>0.153</v>
       </c>
       <c r="B155">
-        <v>28.80095706419825</v>
+        <v>28.801</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1644,7 +1656,7 @@
         <v>0.154</v>
       </c>
       <c r="B156">
-        <v>28.92323464028341</v>
+        <v>28.923</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1652,7 +1664,7 @@
         <v>0.155</v>
       </c>
       <c r="B157">
-        <v>29.03739910216497</v>
+        <v>29.037</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1660,7 +1672,7 @@
         <v>0.156</v>
       </c>
       <c r="B158">
-        <v>29.1393876096949</v>
+        <v>29.139</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1668,7 +1680,7 @@
         <v>0.157</v>
       </c>
       <c r="B159">
-        <v>29.22430601192115</v>
+        <v>29.224</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1676,7 +1688,7 @@
         <v>0.158</v>
       </c>
       <c r="B160">
-        <v>29.28679749892692</v>
+        <v>29.287</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -1684,7 +1696,7 @@
         <v>0.159</v>
       </c>
       <c r="B161">
-        <v>29.32147623453661</v>
+        <v>29.321</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1692,7 +1704,7 @@
         <v>0.16</v>
       </c>
       <c r="B162">
-        <v>29.32348943725259</v>
+        <v>29.323</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1700,7 +1712,7 @@
         <v>0.161</v>
       </c>
       <c r="B163">
-        <v>29.28890726987891</v>
+        <v>29.289</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1708,7 +1720,7 @@
         <v>0.162</v>
       </c>
       <c r="B164">
-        <v>29.2150958672104</v>
+        <v>29.215</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1716,7 +1728,7 @@
         <v>0.163</v>
       </c>
       <c r="B165">
-        <v>29.10109008303882</v>
+        <v>29.101</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1724,7 +1736,7 @@
         <v>0.164</v>
       </c>
       <c r="B166">
-        <v>28.94780298185815</v>
+        <v>28.948</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -1732,7 +1744,7 @@
         <v>0.165</v>
       </c>
       <c r="B167">
-        <v>28.75809833779851</v>
+        <v>28.758</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1740,7 +1752,7 @@
         <v>0.166</v>
       </c>
       <c r="B168">
-        <v>28.53666422480231</v>
+        <v>28.537</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1748,7 +1760,7 @@
         <v>0.167</v>
       </c>
       <c r="B169">
-        <v>28.28988421906068</v>
+        <v>28.29</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1756,7 +1768,7 @@
         <v>0.168</v>
       </c>
       <c r="B170">
-        <v>28.02546759481858</v>
+        <v>28.025</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -1764,7 +1776,7 @@
         <v>0.169</v>
       </c>
       <c r="B171">
-        <v>27.75200951442929</v>
+        <v>27.752</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -1772,7 +1784,7 @@
         <v>0.17</v>
       </c>
       <c r="B172">
-        <v>27.47850802403742</v>
+        <v>27.479</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1780,7 +1792,7 @@
         <v>0.171</v>
       </c>
       <c r="B173">
-        <v>27.21387219105646</v>
+        <v>27.214</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1788,7 +1800,7 @@
         <v>0.172</v>
       </c>
       <c r="B174">
-        <v>26.96646421968587</v>
+        <v>26.966</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1796,7 +1808,7 @@
         <v>0.173</v>
       </c>
       <c r="B175">
-        <v>26.74371238392193</v>
+        <v>26.744</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1804,7 +1816,7 @@
         <v>0.174</v>
       </c>
       <c r="B176">
-        <v>26.55182170649281</v>
+        <v>26.552</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -1812,7 +1824,7 @@
         <v>0.175</v>
       </c>
       <c r="B177">
-        <v>26.39559697676942</v>
+        <v>26.396</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -1820,7 +1832,7 @@
         <v>0.176</v>
       </c>
       <c r="B178">
-        <v>26.27837969462065</v>
+        <v>26.278</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1828,7 +1840,7 @@
         <v>0.177</v>
       </c>
       <c r="B179">
-        <v>26.20215880396795</v>
+        <v>26.202</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -1836,7 +1848,7 @@
         <v>0.178</v>
       </c>
       <c r="B180">
-        <v>26.16758602631182</v>
+        <v>26.168</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -1844,7 +1856,7 @@
         <v>0.179</v>
       </c>
       <c r="B181">
-        <v>26.17418837326935</v>
+        <v>26.174</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -1852,7 +1864,7 @@
         <v>0.18</v>
       </c>
       <c r="B182">
-        <v>26.22060667986882</v>
+        <v>26.221</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -1860,7 +1872,7 @@
         <v>0.181</v>
       </c>
       <c r="B183">
-        <v>26.30481127654234</v>
+        <v>26.305</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -1868,7 +1880,7 @@
         <v>0.182</v>
       </c>
       <c r="B184">
-        <v>26.42429322958413</v>
+        <v>26.424</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -1876,7 +1888,7 @@
         <v>0.183</v>
       </c>
       <c r="B185">
-        <v>26.57621097191191</v>
+        <v>26.576</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -1884,7 +1896,7 @@
         <v>0.184</v>
       </c>
       <c r="B186">
-        <v>26.75748002854456</v>
+        <v>26.757</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -1892,7 +1904,7 @@
         <v>0.185</v>
       </c>
       <c r="B187">
-        <v>26.96480243315091</v>
+        <v>26.965</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -1900,7 +1912,7 @@
         <v>0.186</v>
       </c>
       <c r="B188">
-        <v>27.1946412075877</v>
+        <v>27.195</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1908,7 +1920,7 @@
         <v>0.187</v>
       </c>
       <c r="B189">
-        <v>27.44315290274782</v>
+        <v>27.443</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1916,7 +1928,7 @@
         <v>0.188</v>
       </c>
       <c r="B190">
-        <v>27.70609683240027</v>
+        <v>27.706</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1924,7 +1936,7 @@
         <v>0.189</v>
       </c>
       <c r="B191">
-        <v>27.97874270421974</v>
+        <v>27.979</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1932,7 +1944,7 @@
         <v>0.19</v>
       </c>
       <c r="B192">
-        <v>28.25574582827908</v>
+        <v>28.256</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1940,7 +1952,7 @@
         <v>0.191</v>
       </c>
       <c r="B193">
-        <v>28.53113177731848</v>
+        <v>28.531</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -1948,7 +1960,7 @@
         <v>0.192</v>
       </c>
       <c r="B194">
-        <v>28.7983761638517</v>
+        <v>28.798</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -1956,7 +1968,7 @@
         <v>0.193</v>
       </c>
       <c r="B195">
-        <v>29.05048876839708</v>
+        <v>29.05</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1964,7 +1976,7 @@
         <v>0.194</v>
       </c>
       <c r="B196">
-        <v>29.28012691570276</v>
+        <v>29.28</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -1972,7 +1984,7 @@
         <v>0.195</v>
       </c>
       <c r="B197">
-        <v>29.47981943766835</v>
+        <v>29.48</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1980,7 +1992,7 @@
         <v>0.196</v>
       </c>
       <c r="B198">
-        <v>29.64225224691861</v>
+        <v>29.642</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1988,7 +2000,7 @@
         <v>0.197</v>
       </c>
       <c r="B199">
-        <v>29.76060389221071</v>
+        <v>29.761</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1996,7 +2008,7 @@
         <v>0.198</v>
       </c>
       <c r="B200">
-        <v>29.82892468629749</v>
+        <v>29.829</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -2004,7 +2016,7 @@
         <v>0.199</v>
       </c>
       <c r="B201">
-        <v>29.84254562736752</v>
+        <v>29.843</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2012,7 +2024,7 @@
         <v>0.2</v>
       </c>
       <c r="B202">
-        <v>29.79836812398829</v>
+        <v>29.798</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2020,7 +2032,7 @@
         <v>0.201</v>
       </c>
       <c r="B203">
-        <v>29.6952195027931</v>
+        <v>29.695</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2028,7 +2040,7 @@
         <v>0.202</v>
       </c>
       <c r="B204">
-        <v>29.53412291757311</v>
+        <v>29.534</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2036,7 +2048,7 @@
         <v>0.203</v>
       </c>
       <c r="B205">
-        <v>29.31844937320785</v>
+        <v>29.318</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2044,7 +2056,7 @@
         <v>0.204</v>
       </c>
       <c r="B206">
-        <v>29.05393874866785</v>
+        <v>29.054</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2052,7 +2064,7 @@
         <v>0.205</v>
       </c>
       <c r="B207">
-        <v>28.74859189367728</v>
+        <v>28.749</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2060,7 +2072,7 @@
         <v>0.206</v>
       </c>
       <c r="B208">
-        <v>28.41242261741512</v>
+        <v>28.412</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2068,7 +2080,7 @@
         <v>0.207</v>
       </c>
       <c r="B209">
-        <v>28.0570787074937</v>
+        <v>28.057</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2076,7 +2088,7 @@
         <v>0.208</v>
       </c>
       <c r="B210">
-        <v>27.6953609329649</v>
+        <v>27.695</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2084,7 +2096,7 @@
         <v>0.209</v>
       </c>
       <c r="B211">
-        <v>27.34066707162055</v>
+        <v>27.341</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2092,7 +2104,7 @@
         <v>0.21</v>
       </c>
       <c r="B212">
-        <v>27.00635096440658</v>
+        <v>27.006</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2100,7 +2112,7 @@
         <v>0.211</v>
       </c>
       <c r="B213">
-        <v>26.70514624336591</v>
+        <v>26.705</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2108,7 +2120,7 @@
         <v>0.212</v>
       </c>
       <c r="B214">
-        <v>26.44861477739681</v>
+        <v>26.449</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2116,7 +2128,7 @@
         <v>0.213</v>
       </c>
       <c r="B215">
-        <v>26.24668042572807</v>
+        <v>26.247</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2124,7 +2136,7 @@
         <v>0.214</v>
       </c>
       <c r="B216">
-        <v>26.10727755658062</v>
+        <v>26.107</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2132,7 +2144,7 @@
         <v>0.215</v>
       </c>
       <c r="B217">
-        <v>26.03618827170842</v>
+        <v>26.036</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2140,7 +2152,7 @@
         <v>0.216</v>
       </c>
       <c r="B218">
-        <v>26.03693071453647</v>
+        <v>26.037</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2148,7 +2160,7 @@
         <v>0.217</v>
       </c>
       <c r="B219">
-        <v>26.1107431727261</v>
+        <v>26.111</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2156,7 +2168,7 @@
         <v>0.218</v>
       </c>
       <c r="B220">
-        <v>26.25683753985009</v>
+        <v>26.257</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2164,7 +2176,7 @@
         <v>0.219</v>
       </c>
       <c r="B221">
-        <v>26.47267139017671</v>
+        <v>26.473</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2172,7 +2184,7 @@
         <v>0.22</v>
       </c>
       <c r="B222">
-        <v>26.75427604283066</v>
+        <v>26.754</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2180,7 +2192,7 @@
         <v>0.221</v>
       </c>
       <c r="B223">
-        <v>27.09659961233551</v>
+        <v>27.097</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2188,7 +2200,7 @@
         <v>0.222</v>
       </c>
       <c r="B224">
-        <v>27.49382464238077</v>
+        <v>27.494</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2196,7 +2208,7 @@
         <v>0.223</v>
       </c>
       <c r="B225">
-        <v>27.93962567699019</v>
+        <v>27.94</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2204,7 +2216,7 @@
         <v>0.224</v>
       </c>
       <c r="B226">
-        <v>28.4273424660742</v>
+        <v>28.427</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2212,7 +2224,7 @@
         <v>0.225</v>
       </c>
       <c r="B227">
-        <v>28.95005811832792</v>
+        <v>28.95</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2220,7 +2232,7 @@
         <v>0.226</v>
       </c>
       <c r="B228">
-        <v>29.50058662743584</v>
+        <v>29.501</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2228,7 +2240,7 @@
         <v>0.227</v>
       </c>
       <c r="B229">
-        <v>30.07131991856794</v>
+        <v>30.071</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2236,7 +2248,7 @@
         <v>0.228</v>
       </c>
       <c r="B230">
-        <v>30.65420785144097</v>
+        <v>30.654</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2244,7 +2256,7 @@
         <v>0.229</v>
       </c>
       <c r="B231">
-        <v>31.24060128811429</v>
+        <v>31.241</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2252,7 +2264,7 @@
         <v>0.23</v>
       </c>
       <c r="B232">
-        <v>31.82114737861266</v>
+        <v>31.821</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2260,7 +2272,7 @@
         <v>0.231</v>
       </c>
       <c r="B233">
-        <v>32.38578285785682</v>
+        <v>32.386</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2268,7 +2280,7 @@
         <v>0.232</v>
       </c>
       <c r="B234">
-        <v>32.92376672970947</v>
+        <v>32.924</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2276,7 +2288,7 @@
         <v>0.233</v>
       </c>
       <c r="B235">
-        <v>33.42393363045777</v>
+        <v>33.424</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2284,7 +2296,7 @@
         <v>0.234</v>
       </c>
       <c r="B236">
-        <v>33.87516290007256</v>
+        <v>33.875</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2292,7 +2304,7 @@
         <v>0.235</v>
       </c>
       <c r="B237">
-        <v>34.26670896050213</v>
+        <v>34.267</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2300,7 +2312,7 @@
         <v>0.236</v>
       </c>
       <c r="B238">
-        <v>34.5887047456797</v>
+        <v>34.589</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -2308,7 +2320,7 @@
         <v>0.237</v>
       </c>
       <c r="B239">
-        <v>34.8326878114582</v>
+        <v>34.833</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2316,7 +2328,7 @@
         <v>0.238</v>
       </c>
       <c r="B240">
-        <v>34.99210747909093</v>
+        <v>34.992</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -2324,7 +2336,7 @@
         <v>0.239</v>
       </c>
       <c r="B241">
-        <v>35.0627748016373</v>
+        <v>35.063</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2332,7 +2344,7 @@
         <v>0.24</v>
       </c>
       <c r="B242">
-        <v>35.04322423759631</v>
+        <v>35.043</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -2340,7 +2352,7 @@
         <v>0.241</v>
       </c>
       <c r="B243">
-        <v>34.93502419134298</v>
+        <v>34.935</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -2348,7 +2360,7 @@
         <v>0.242</v>
       </c>
       <c r="B244">
-        <v>34.74284211988254</v>
+        <v>34.743</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -2356,7 +2368,7 @@
         <v>0.243</v>
       </c>
       <c r="B245">
-        <v>34.47443217432989</v>
+        <v>34.474</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -2364,7 +2376,7 @@
         <v>0.244</v>
       </c>
       <c r="B246">
-        <v>34.14069354189098</v>
+        <v>34.141</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -2372,7 +2384,7 @@
         <v>0.245</v>
       </c>
       <c r="B247">
-        <v>33.75514443060695</v>
+        <v>33.755</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -2380,7 +2392,7 @@
         <v>0.246</v>
       </c>
       <c r="B248">
-        <v>33.33372720378233</v>
+        <v>33.334</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -2388,7 +2400,7 @@
         <v>0.247</v>
       </c>
       <c r="B249">
-        <v>32.89434593897357</v>
+        <v>32.894</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -2396,7 +2408,7 @@
         <v>0.248</v>
       </c>
       <c r="B250">
-        <v>32.45630132848155</v>
+        <v>32.456</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -2404,7 +2416,7 @@
         <v>0.249</v>
       </c>
       <c r="B251">
-        <v>32.03962721054566</v>
+        <v>32.04</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -2412,7 +2424,7 @@
         <v>0.25</v>
       </c>
       <c r="B252">
-        <v>31.6643363172757</v>
+        <v>31.664</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -2420,7 +2432,7 @@
         <v>0.251</v>
       </c>
       <c r="B253">
-        <v>31.34960422045081</v>
+        <v>31.35</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -2428,7 +2440,7 @@
         <v>0.252</v>
       </c>
       <c r="B254">
-        <v>31.11287056844122</v>
+        <v>31.113</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -2436,7 +2448,7 @@
         <v>0.253</v>
       </c>
       <c r="B255">
-        <v>30.96894443395506</v>
+        <v>30.969</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -2444,7 +2456,7 @@
         <v>0.254</v>
       </c>
       <c r="B256">
-        <v>30.92915622037364</v>
+        <v>30.929</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -2452,7 +2464,7 @@
         <v>0.255</v>
       </c>
       <c r="B257">
-        <v>31.00060073763817</v>
+        <v>31.001</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -2460,7 +2472,7 @@
         <v>0.256</v>
       </c>
       <c r="B258">
-        <v>31.18554512049592</v>
+        <v>31.186</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -2468,7 +2480,7 @@
         <v>0.257</v>
       </c>
       <c r="B259">
-        <v>31.48106598081359</v>
+        <v>31.481</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -2476,7 +2488,7 @@
         <v>0.258</v>
       </c>
       <c r="B260">
-        <v>31.87897019900388</v>
+        <v>31.879</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -2484,7 +2496,7 @@
         <v>0.259</v>
       </c>
       <c r="B261">
-        <v>32.36603354549031</v>
+        <v>32.366</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -2492,7 +2504,7 @@
         <v>0.26</v>
       </c>
       <c r="B262">
-        <v>32.92457230466518</v>
+        <v>32.925</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -2500,7 +2512,7 @@
         <v>0.261</v>
       </c>
       <c r="B263">
-        <v>33.53332737593811</v>
+        <v>33.533</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -2508,7 +2520,7 @@
         <v>0.262</v>
       </c>
       <c r="B264">
-        <v>34.16860241421477</v>
+        <v>34.169</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -2516,7 +2528,7 @@
         <v>0.263</v>
       </c>
       <c r="B265">
-        <v>34.80558508683571</v>
+        <v>34.806</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -2524,7 +2536,7 @@
         <v>0.264</v>
       </c>
       <c r="B266">
-        <v>35.41974801850472</v>
+        <v>35.42</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -2532,7 +2544,7 @@
         <v>0.265</v>
       </c>
       <c r="B267">
-        <v>35.98815906794403</v>
+        <v>35.988</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -2540,7 +2552,7 @@
         <v>0.266</v>
       </c>
       <c r="B268">
-        <v>36.49073599665908</v>
+        <v>36.491</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -2548,7 +2560,7 @@
         <v>0.267</v>
       </c>
       <c r="B269">
-        <v>36.91130509106348</v>
+        <v>36.911</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -2556,7 +2568,7 @@
         <v>0.268</v>
       </c>
       <c r="B270">
-        <v>37.23819436390794</v>
+        <v>37.238</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -2564,7 +2576,7 @@
         <v>0.269</v>
       </c>
       <c r="B271">
-        <v>37.46454007115232</v>
+        <v>37.465</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -2572,7 +2584,7 @@
         <v>0.27</v>
       </c>
       <c r="B272">
-        <v>37.58823350312635</v>
+        <v>37.588</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -2580,7 +2592,7 @@
         <v>0.271</v>
       </c>
       <c r="B273">
-        <v>37.6115399707022</v>
+        <v>37.612</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -2588,7 +2600,7 @@
         <v>0.272</v>
       </c>
       <c r="B274">
-        <v>37.54045102603971</v>
+        <v>37.54</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -2596,7 +2608,7 @@
         <v>0.273</v>
       </c>
       <c r="B275">
-        <v>37.3838512999589</v>
+        <v>37.384</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -2604,7 +2616,7 @@
         <v>0.274</v>
       </c>
       <c r="B276">
-        <v>37.15259105612082</v>
+        <v>37.153</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -2612,7 +2624,7 @@
         <v>0.275</v>
       </c>
       <c r="B277">
-        <v>36.85855441778975</v>
+        <v>36.859</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -2620,7 +2632,7 @@
         <v>0.276</v>
       </c>
       <c r="B278">
-        <v>36.51380235162861</v>
+        <v>36.514</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -2628,7 +2640,7 @@
         <v>0.277</v>
       </c>
       <c r="B279">
-        <v>36.12985121286027</v>
+        <v>36.13</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -2636,7 +2648,7 @@
         <v>0.278</v>
       </c>
       <c r="B280">
-        <v>35.71712510679569</v>
+        <v>35.717</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -2644,7 +2656,7 @@
         <v>0.279</v>
       </c>
       <c r="B281">
-        <v>35.28454987390641</v>
+        <v>35.285</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -2652,7 +2664,7 @@
         <v>0.28</v>
       </c>
       <c r="B282">
-        <v>34.83942501991485</v>
+        <v>34.839</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -2660,7 +2672,7 @@
         <v>0.281</v>
       </c>
       <c r="B283">
-        <v>34.38743091116238</v>
+        <v>34.387</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -2668,7 +2680,7 @@
         <v>0.282</v>
       </c>
       <c r="B284">
-        <v>33.93276505377907</v>
+        <v>33.933</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -2676,7 +2688,7 @@
         <v>0.283</v>
       </c>
       <c r="B285">
-        <v>33.47831329045078</v>
+        <v>33.478</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -2684,7 +2696,7 @@
         <v>0.284</v>
       </c>
       <c r="B286">
-        <v>33.02577020106069</v>
+        <v>33.026</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -2692,7 +2704,7 @@
         <v>0.285</v>
       </c>
       <c r="B287">
-        <v>32.57602141408981</v>
+        <v>32.576</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -2700,7 +2712,7 @@
         <v>0.286</v>
       </c>
       <c r="B288">
-        <v>32.12942810309951</v>
+        <v>32.129</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -2708,7 +2720,7 @@
         <v>0.287</v>
       </c>
       <c r="B289">
-        <v>31.68610293426975</v>
+        <v>31.686</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -2716,7 +2728,7 @@
         <v>0.288</v>
       </c>
       <c r="B290">
-        <v>31.24616860011789</v>
+        <v>31.246</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -2724,7 +2736,7 @@
         <v>0.289</v>
       </c>
       <c r="B291">
-        <v>30.80999437728266</v>
+        <v>30.81</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -2732,7 +2744,7 @@
         <v>0.29</v>
       </c>
       <c r="B292">
-        <v>30.37841138508566</v>
+        <v>30.378</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -2740,7 +2752,7 @@
         <v>0.291</v>
       </c>
       <c r="B293">
-        <v>29.95290483148703</v>
+        <v>29.953</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -2748,7 +2760,7 @@
         <v>0.292</v>
       </c>
       <c r="B294">
-        <v>29.53573236175722</v>
+        <v>29.536</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -2756,7 +2768,7 @@
         <v>0.293</v>
       </c>
       <c r="B295">
-        <v>29.13003427787292</v>
+        <v>29.13</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -2764,7 +2776,7 @@
         <v>0.294</v>
       </c>
       <c r="B296">
-        <v>28.73972305004765</v>
+        <v>28.74</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -2772,7 +2784,7 @@
         <v>0.295</v>
       </c>
       <c r="B297">
-        <v>28.36972882520724</v>
+        <v>28.37</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -2780,7 +2792,7 @@
         <v>0.296</v>
       </c>
       <c r="B298">
-        <v>28.0257206301621</v>
+        <v>28.026</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -2788,7 +2800,7 @@
         <v>0.297</v>
       </c>
       <c r="B299">
-        <v>27.71388897242375</v>
+        <v>27.714</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -2796,7 +2808,7 @@
         <v>0.298</v>
       </c>
       <c r="B300">
-        <v>27.44064535637818</v>
+        <v>27.441</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -2804,7 +2816,7 @@
         <v>0.299</v>
       </c>
       <c r="B301">
-        <v>27.21225726866628</v>
+        <v>27.212</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -2812,7 +2824,7 @@
         <v>0.3</v>
       </c>
       <c r="B302">
-        <v>27.03444648060332</v>
+        <v>27.034</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -2820,7 +2832,7 @@
         <v>0.301</v>
       </c>
       <c r="B303">
-        <v>26.91198523948217</v>
+        <v>26.912</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -2828,7 +2840,7 @@
         <v>0.302</v>
       </c>
       <c r="B304">
-        <v>26.84832801452949</v>
+        <v>26.848</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -2836,7 +2848,7 @@
         <v>0.303</v>
       </c>
       <c r="B305">
-        <v>26.84534301620845</v>
+        <v>26.845</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -2844,7 +2856,7 @@
         <v>0.304</v>
       </c>
       <c r="B306">
-        <v>26.90310792393374</v>
+        <v>26.903</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -2852,7 +2864,7 @@
         <v>0.305</v>
       </c>
       <c r="B307">
-        <v>27.01979188294622</v>
+        <v>27.02</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -2860,7 +2872,7 @@
         <v>0.306</v>
       </c>
       <c r="B308">
-        <v>27.19176553977834</v>
+        <v>27.192</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -2868,7 +2880,7 @@
         <v>0.307</v>
       </c>
       <c r="B309">
-        <v>27.41379567268289</v>
+        <v>27.414</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -2876,7 +2888,7 @@
         <v>0.308</v>
       </c>
       <c r="B310">
-        <v>27.67934752772129</v>
+        <v>27.679</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -2884,7 +2896,7 @@
         <v>0.309</v>
       </c>
       <c r="B311">
-        <v>27.980963621025</v>
+        <v>27.981</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -2892,7 +2904,7 @@
         <v>0.31</v>
       </c>
       <c r="B312">
-        <v>28.31067296055197</v>
+        <v>28.311</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -2900,7 +2912,7 @@
         <v>0.311</v>
       </c>
       <c r="B313">
-        <v>28.66038732543965</v>
+        <v>28.66</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -2908,7 +2920,7 @@
         <v>0.312</v>
       </c>
       <c r="B314">
-        <v>29.02225161991703</v>
+        <v>29.022</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -2916,7 +2928,7 @@
         <v>0.313</v>
       </c>
       <c r="B315">
-        <v>29.38890811276141</v>
+        <v>29.389</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -2924,7 +2936,7 @@
         <v>0.314</v>
       </c>
       <c r="B316">
-        <v>29.7536578770306</v>
+        <v>29.754</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -2932,7 +2944,7 @@
         <v>0.315</v>
       </c>
       <c r="B317">
-        <v>30.11051531964006</v>
+        <v>30.111</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -2940,7 +2952,7 @@
         <v>0.316</v>
       </c>
       <c r="B318">
-        <v>30.45416685123123</v>
+        <v>30.454</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -2948,7 +2960,7 @@
         <v>0.317</v>
       </c>
       <c r="B319">
-        <v>30.77985771309822</v>
+        <v>30.78</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -2956,7 +2968,7 @@
         <v>0.318</v>
       </c>
       <c r="B320">
-        <v>31.08323985621396</v>
+        <v>31.083</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -2964,7 +2976,7 @@
         <v>0.319</v>
       </c>
       <c r="B321">
-        <v>31.36021734853201</v>
+        <v>31.36</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -2972,7 +2984,7 @@
         <v>0.32</v>
       </c>
       <c r="B322">
-        <v>31.60678002205083</v>
+        <v>31.607</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -2980,7 +2992,7 @@
         <v>0.321</v>
       </c>
       <c r="B323">
-        <v>31.81897877569435</v>
+        <v>31.819</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -2988,7 +3000,7 @@
         <v>0.322</v>
       </c>
       <c r="B324">
-        <v>31.99297253554148</v>
+        <v>31.993</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -2996,7 +3008,7 @@
         <v>0.323</v>
       </c>
       <c r="B325">
-        <v>32.12506908494816</v>
+        <v>32.125</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -3004,7 +3016,7 @@
         <v>0.324</v>
       </c>
       <c r="B326">
-        <v>32.21188038470597</v>
+        <v>32.212</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -3012,7 +3024,7 @@
         <v>0.325</v>
       </c>
       <c r="B327">
-        <v>32.25052910176957</v>
+        <v>32.251</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -3020,7 +3032,7 @@
         <v>0.326</v>
       </c>
       <c r="B328">
-        <v>32.23888309659029</v>
+        <v>32.239</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -3028,7 +3040,7 @@
         <v>0.327</v>
       </c>
       <c r="B329">
-        <v>32.17579215252426</v>
+        <v>32.176</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -3036,7 +3048,7 @@
         <v>0.328</v>
       </c>
       <c r="B330">
-        <v>32.06130211880974</v>
+        <v>32.061</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -3044,7 +3056,7 @@
         <v>0.329</v>
       </c>
       <c r="B331">
-        <v>31.89687475442481</v>
+        <v>31.897</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -3052,7 +3064,7 @@
         <v>0.33</v>
       </c>
       <c r="B332">
-        <v>31.68545154726649</v>
+        <v>31.685</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -3060,7 +3072,7 @@
         <v>0.331</v>
       </c>
       <c r="B333">
-        <v>31.43146640923326</v>
+        <v>31.431</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -3068,7 +3080,7 @@
         <v>0.332</v>
       </c>
       <c r="B334">
-        <v>31.14085355816072</v>
+        <v>31.141</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -3076,7 +3088,7 @@
         <v>0.333</v>
       </c>
       <c r="B335">
-        <v>30.82094071856964</v>
+        <v>30.821</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -3084,7 +3096,7 @@
         <v>0.334</v>
       </c>
       <c r="B336">
-        <v>30.48027048570721</v>
+        <v>30.48</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -3092,7 +3104,7 @@
         <v>0.335</v>
       </c>
       <c r="B337">
-        <v>30.12835625533535</v>
+        <v>30.128</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -3100,7 +3112,7 @@
         <v>0.336</v>
       </c>
       <c r="B338">
-        <v>29.77538229255221</v>
+        <v>29.775</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -3108,7 +3120,7 @@
         <v>0.337</v>
       </c>
       <c r="B339">
-        <v>29.43190197815657</v>
+        <v>29.432</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -3116,7 +3128,7 @@
         <v>0.338</v>
       </c>
       <c r="B340">
-        <v>29.10841473423696</v>
+        <v>29.108</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -3124,7 +3136,7 @@
         <v>0.339</v>
       </c>
       <c r="B341">
-        <v>28.81497454959645</v>
+        <v>28.815</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -3132,7 +3144,7 @@
         <v>0.34</v>
       </c>
       <c r="B342">
-        <v>28.56084012932363</v>
+        <v>28.561</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -3140,7 +3152,7 @@
         <v>0.341</v>
       </c>
       <c r="B343">
-        <v>28.35411380050431</v>
+        <v>28.354</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -3148,7 +3160,7 @@
         <v>0.342</v>
       </c>
       <c r="B344">
-        <v>28.20145967035043</v>
+        <v>28.201</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -3156,7 +3168,7 @@
         <v>0.343</v>
       </c>
       <c r="B345">
-        <v>28.10783074945618</v>
+        <v>28.108</v>
       </c>
     </row>
   </sheetData>
@@ -3166,156 +3178,162 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E345"/>
+  <dimension ref="A1:F345"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>30.85884857177734</v>
-      </c>
-      <c r="C2">
+        <v>30.859</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2">
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>0.001</v>
       </c>
       <c r="B3">
-        <v>31.08235740661621</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>31.082</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>0.002</v>
       </c>
       <c r="B4">
-        <v>31.30586624145508</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>31.306</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>0.003</v>
       </c>
       <c r="B5">
-        <v>31.37991142272949</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>31.38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>0.004</v>
       </c>
       <c r="B6">
-        <v>30.66926765441895</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>30.669</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>0.005</v>
       </c>
       <c r="B7">
-        <v>29.9586238861084</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>29.959</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>0.006</v>
       </c>
       <c r="B8">
-        <v>29.24797821044922</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>29.248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>0.007</v>
       </c>
       <c r="B9">
-        <v>28.53733444213867</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>28.537</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>0.008</v>
       </c>
       <c r="B10">
-        <v>28.40437507629395</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>28.404</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
-        <v>0.009000000000000001</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="B11">
-        <v>28.33560371398926</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>28.336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>0.01</v>
       </c>
       <c r="B12">
-        <v>28.26683235168457</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>28.267</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>0.011</v>
       </c>
       <c r="B13">
-        <v>28.19805908203125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>28.198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>0.012</v>
       </c>
       <c r="B14">
-        <v>28.55842590332031</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>28.558</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>0.013</v>
       </c>
       <c r="B15">
-        <v>29.16018104553223</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>29.16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>0.014</v>
       </c>
       <c r="B16">
-        <v>29.76193618774414</v>
+        <v>29.762</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3323,7 +3341,7 @@
         <v>0.015</v>
       </c>
       <c r="B17">
-        <v>30.36369132995605</v>
+        <v>30.364</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3331,7 +3349,7 @@
         <v>0.016</v>
       </c>
       <c r="B18">
-        <v>30.96544647216797</v>
+        <v>30.965</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3339,7 +3357,7 @@
         <v>0.017</v>
       </c>
       <c r="B19">
-        <v>31.56720161437988</v>
+        <v>31.567</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3347,7 +3365,7 @@
         <v>0.018</v>
       </c>
       <c r="B20">
-        <v>31.68204879760742</v>
+        <v>31.682</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3355,7 +3373,7 @@
         <v>0.019</v>
       </c>
       <c r="B21">
-        <v>31.776611328125</v>
+        <v>31.777</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3363,7 +3381,7 @@
         <v>0.02</v>
       </c>
       <c r="B22">
-        <v>31.87117195129395</v>
+        <v>31.871</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3371,7 +3389,7 @@
         <v>0.021</v>
       </c>
       <c r="B23">
-        <v>31.96573448181152</v>
+        <v>31.966</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3379,7 +3397,7 @@
         <v>0.022</v>
       </c>
       <c r="B24">
-        <v>32.06029510498047</v>
+        <v>32.06</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3387,7 +3405,7 @@
         <v>0.023</v>
       </c>
       <c r="B25">
-        <v>32.27280044555664</v>
+        <v>32.273</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3395,7 +3413,7 @@
         <v>0.024</v>
       </c>
       <c r="B26">
-        <v>32.78859329223633</v>
+        <v>32.789</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3403,7 +3421,7 @@
         <v>0.025</v>
       </c>
       <c r="B27">
-        <v>33.30438232421875</v>
+        <v>33.304</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3411,7 +3429,7 @@
         <v>0.026</v>
       </c>
       <c r="B28">
-        <v>33.82017135620117</v>
+        <v>33.82</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3419,7 +3437,7 @@
         <v>0.027</v>
       </c>
       <c r="B29">
-        <v>34.30570220947266</v>
+        <v>34.306</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -3427,7 +3445,7 @@
         <v>0.028</v>
       </c>
       <c r="B30">
-        <v>33.30850601196289</v>
+        <v>33.309</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3435,7 +3453,7 @@
         <v>0.029</v>
       </c>
       <c r="B31">
-        <v>32.31131362915039</v>
+        <v>32.311</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3443,7 +3461,7 @@
         <v>0.03</v>
       </c>
       <c r="B32">
-        <v>31.31411933898926</v>
+        <v>31.314</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3451,7 +3469,7 @@
         <v>0.031</v>
       </c>
       <c r="B33">
-        <v>30.31692504882812</v>
+        <v>30.317</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3459,7 +3477,7 @@
         <v>0.032</v>
       </c>
       <c r="B34">
-        <v>29.17599678039551</v>
+        <v>29.176</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3467,7 +3485,7 @@
         <v>0.033</v>
       </c>
       <c r="B35">
-        <v>27.98967933654785</v>
+        <v>27.99</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -3475,7 +3493,7 @@
         <v>0.034</v>
       </c>
       <c r="B36">
-        <v>26.8033618927002</v>
+        <v>26.803</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -3483,7 +3501,7 @@
         <v>0.035</v>
       </c>
       <c r="B37">
-        <v>26.36047172546387</v>
+        <v>26.36</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -3491,7 +3509,7 @@
         <v>0.036</v>
       </c>
       <c r="B38">
-        <v>25.98222541809082</v>
+        <v>25.982</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3499,7 +3517,7 @@
         <v>0.037</v>
       </c>
       <c r="B39">
-        <v>25.67963027954102</v>
+        <v>25.68</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -3507,7 +3525,7 @@
         <v>0.038</v>
       </c>
       <c r="B40">
-        <v>26.24699974060059</v>
+        <v>26.247</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3515,7 +3533,7 @@
         <v>0.039</v>
       </c>
       <c r="B41">
-        <v>26.81436729431152</v>
+        <v>26.814</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -3523,7 +3541,7 @@
         <v>0.04</v>
       </c>
       <c r="B42">
-        <v>27.37348365783691</v>
+        <v>27.373</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3531,7 +3549,7 @@
         <v>0.041</v>
       </c>
       <c r="B43">
-        <v>27.90646743774414</v>
+        <v>27.906</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -3539,7 +3557,7 @@
         <v>0.042</v>
       </c>
       <c r="B44">
-        <v>28.43944931030273</v>
+        <v>28.439</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -3547,7 +3565,7 @@
         <v>0.043</v>
       </c>
       <c r="B45">
-        <v>28.99765014648438</v>
+        <v>28.998</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -3555,7 +3573,7 @@
         <v>0.044</v>
       </c>
       <c r="B46">
-        <v>29.59367370605469</v>
+        <v>29.594</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -3563,7 +3581,7 @@
         <v>0.045</v>
       </c>
       <c r="B47">
-        <v>30.18969917297363</v>
+        <v>30.19</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -3571,7 +3589,7 @@
         <v>0.046</v>
       </c>
       <c r="B48">
-        <v>30.78572273254395</v>
+        <v>30.786</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -3579,7 +3597,7 @@
         <v>0.047</v>
       </c>
       <c r="B49">
-        <v>31.24654960632324</v>
+        <v>31.247</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -3587,7 +3605,7 @@
         <v>0.048</v>
       </c>
       <c r="B50">
-        <v>30.87689971923828</v>
+        <v>30.877</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -3595,7 +3613,7 @@
         <v>0.049</v>
       </c>
       <c r="B51">
-        <v>30.50724983215332</v>
+        <v>30.507</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -3603,7 +3621,7 @@
         <v>0.05</v>
       </c>
       <c r="B52">
-        <v>30.13760185241699</v>
+        <v>30.138</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -3611,7 +3629,7 @@
         <v>0.051</v>
       </c>
       <c r="B53">
-        <v>29.76795196533203</v>
+        <v>29.768</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -3619,7 +3637,7 @@
         <v>0.052</v>
       </c>
       <c r="B54">
-        <v>29.39830207824707</v>
+        <v>29.398</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -3627,7 +3645,7 @@
         <v>0.053</v>
       </c>
       <c r="B55">
-        <v>29.18485260009766</v>
+        <v>29.185</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -3635,7 +3653,7 @@
         <v>0.054</v>
       </c>
       <c r="B56">
-        <v>29.15476417541504</v>
+        <v>29.155</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -3643,7 +3661,7 @@
         <v>0.055</v>
       </c>
       <c r="B57">
-        <v>29.12467575073242</v>
+        <v>29.125</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -3651,7 +3669,7 @@
         <v>0.056</v>
       </c>
       <c r="B58">
-        <v>29.09458923339844</v>
+        <v>29.095</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -3659,7 +3677,7 @@
         <v>0.057</v>
       </c>
       <c r="B59">
-        <v>29.06450080871582</v>
+        <v>29.065</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -3667,7 +3685,7 @@
         <v>0.058</v>
       </c>
       <c r="B60">
-        <v>29.0344123840332</v>
+        <v>29.034</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -3675,7 +3693,7 @@
         <v>0.059</v>
       </c>
       <c r="B61">
-        <v>29.00432586669922</v>
+        <v>29.004</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -3683,7 +3701,7 @@
         <v>0.06</v>
       </c>
       <c r="B62">
-        <v>28.9742374420166</v>
+        <v>28.974</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -3691,7 +3709,7 @@
         <v>0.061</v>
       </c>
       <c r="B63">
-        <v>28.94414901733398</v>
+        <v>28.944</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -3699,7 +3717,7 @@
         <v>0.062</v>
       </c>
       <c r="B64">
-        <v>28.9140625</v>
+        <v>28.914</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -3707,7 +3725,7 @@
         <v>0.063</v>
       </c>
       <c r="B65">
-        <v>28.88397407531738</v>
+        <v>28.884</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -3715,7 +3733,7 @@
         <v>0.064</v>
       </c>
       <c r="B66">
-        <v>28.85388565063477</v>
+        <v>28.854</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -3723,7 +3741,7 @@
         <v>0.065</v>
       </c>
       <c r="B67">
-        <v>28.82379913330078</v>
+        <v>28.824</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -3731,7 +3749,7 @@
         <v>0.066</v>
       </c>
       <c r="B68">
-        <v>28.79371070861816</v>
+        <v>28.794</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -3739,7 +3757,7 @@
         <v>0.067</v>
       </c>
       <c r="B69">
-        <v>28.76362419128418</v>
+        <v>28.764</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -3747,7 +3765,7 @@
         <v>0.068</v>
       </c>
       <c r="B70">
-        <v>28.73353576660156</v>
+        <v>28.734</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -3755,7 +3773,7 @@
         <v>0.06900000000000001</v>
       </c>
       <c r="B71">
-        <v>28.70344734191895</v>
+        <v>28.703</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -3763,23 +3781,23 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="B72">
-        <v>28.67336082458496</v>
+        <v>28.673</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>0.07100000000000001</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="B73">
-        <v>28.64327239990234</v>
+        <v>28.643</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>0.07200000000000001</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="B74">
-        <v>28.61318397521973</v>
+        <v>28.613</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -3787,7 +3805,7 @@
         <v>0.073</v>
       </c>
       <c r="B75">
-        <v>28.58309745788574</v>
+        <v>28.583</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -3795,7 +3813,7 @@
         <v>0.074</v>
       </c>
       <c r="B76">
-        <v>28.55300903320312</v>
+        <v>28.553</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -3803,7 +3821,7 @@
         <v>0.075</v>
       </c>
       <c r="B77">
-        <v>28.52292060852051</v>
+        <v>28.523</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -3811,7 +3829,7 @@
         <v>0.076</v>
       </c>
       <c r="B78">
-        <v>28.59991836547852</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -3819,7 +3837,7 @@
         <v>0.077</v>
       </c>
       <c r="B79">
-        <v>28.71453857421875</v>
+        <v>28.715</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -3827,7 +3845,7 @@
         <v>0.078</v>
       </c>
       <c r="B80">
-        <v>28.82915878295898</v>
+        <v>28.829</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -3835,7 +3853,7 @@
         <v>0.079</v>
       </c>
       <c r="B81">
-        <v>28.94377708435059</v>
+        <v>28.944</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -3843,7 +3861,7 @@
         <v>0.08</v>
       </c>
       <c r="B82">
-        <v>29.10791397094727</v>
+        <v>29.108</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -3851,7 +3869,7 @@
         <v>0.081</v>
       </c>
       <c r="B83">
-        <v>29.32569122314453</v>
+        <v>29.326</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -3859,7 +3877,7 @@
         <v>0.082</v>
       </c>
       <c r="B84">
-        <v>29.54347038269043</v>
+        <v>29.543</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -3867,7 +3885,7 @@
         <v>0.083</v>
       </c>
       <c r="B85">
-        <v>29.7612476348877</v>
+        <v>29.761</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -3875,7 +3893,7 @@
         <v>0.08400000000000001</v>
       </c>
       <c r="B86">
-        <v>30.15428161621094</v>
+        <v>30.154</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -3883,23 +3901,23 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="B87">
-        <v>31.16866874694824</v>
+        <v>31.169</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>0.08600000000000001</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="B88">
-        <v>32.18305587768555</v>
+        <v>32.183</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>0.08700000000000001</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="B89">
-        <v>32.62468338012695</v>
+        <v>32.625</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -3907,7 +3925,7 @@
         <v>0.08799999999999999</v>
       </c>
       <c r="B90">
-        <v>32.13181686401367</v>
+        <v>32.132</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -3915,7 +3933,7 @@
         <v>0.089</v>
       </c>
       <c r="B91">
-        <v>31.63895034790039</v>
+        <v>31.639</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -3923,7 +3941,7 @@
         <v>0.09</v>
       </c>
       <c r="B92">
-        <v>31.14608383178711</v>
+        <v>31.146</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -3931,7 +3949,7 @@
         <v>0.091</v>
       </c>
       <c r="B93">
-        <v>30.71236419677734</v>
+        <v>30.712</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -3939,7 +3957,7 @@
         <v>0.092</v>
       </c>
       <c r="B94">
-        <v>30.71236419677734</v>
+        <v>30.712</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -3947,7 +3965,7 @@
         <v>0.093</v>
       </c>
       <c r="B95">
-        <v>30.71236419677734</v>
+        <v>30.712</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -3955,7 +3973,7 @@
         <v>0.094</v>
       </c>
       <c r="B96">
-        <v>30.71236419677734</v>
+        <v>30.712</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -3963,7 +3981,7 @@
         <v>0.095</v>
       </c>
       <c r="B97">
-        <v>30.71236419677734</v>
+        <v>30.712</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -3971,7 +3989,7 @@
         <v>0.096</v>
       </c>
       <c r="B98">
-        <v>30.75179290771484</v>
+        <v>30.752</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -3979,7 +3997,7 @@
         <v>0.097</v>
       </c>
       <c r="B99">
-        <v>30.79764175415039</v>
+        <v>30.798</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -3987,7 +4005,7 @@
         <v>0.098</v>
       </c>
       <c r="B100">
-        <v>30.84349060058594</v>
+        <v>30.843</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -3995,7 +4013,7 @@
         <v>0.099</v>
       </c>
       <c r="B101">
-        <v>30.88933753967285</v>
+        <v>30.889</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -4003,7 +4021,7 @@
         <v>0.1</v>
       </c>
       <c r="B102">
-        <v>31.21027565002441</v>
+        <v>31.21</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -4011,7 +4029,7 @@
         <v>0.101</v>
       </c>
       <c r="B103">
-        <v>31.71460342407227</v>
+        <v>31.715</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -4019,7 +4037,7 @@
         <v>0.102</v>
       </c>
       <c r="B104">
-        <v>32.21893310546875</v>
+        <v>32.219</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -4027,7 +4045,7 @@
         <v>0.103</v>
       </c>
       <c r="B105">
-        <v>32.72325897216797</v>
+        <v>32.723</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -4035,7 +4053,7 @@
         <v>0.104</v>
       </c>
       <c r="B106">
-        <v>32.65276336669922</v>
+        <v>32.653</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -4043,7 +4061,7 @@
         <v>0.105</v>
       </c>
       <c r="B107">
-        <v>31.46644592285156</v>
+        <v>31.466</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -4051,7 +4069,7 @@
         <v>0.106</v>
       </c>
       <c r="B108">
-        <v>30.28013229370117</v>
+        <v>30.28</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -4059,7 +4077,7 @@
         <v>0.107</v>
       </c>
       <c r="B109">
-        <v>28.91328811645508</v>
+        <v>28.913</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -4067,7 +4085,7 @@
         <v>0.108</v>
       </c>
       <c r="B110">
-        <v>27.51996803283691</v>
+        <v>27.52</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -4075,7 +4093,7 @@
         <v>0.109</v>
       </c>
       <c r="B111">
-        <v>27.89821434020996</v>
+        <v>27.898</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -4083,7 +4101,7 @@
         <v>0.11</v>
       </c>
       <c r="B112">
-        <v>28.00412178039551</v>
+        <v>28.004</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -4091,7 +4109,7 @@
         <v>0.111</v>
       </c>
       <c r="B113">
-        <v>24.94652366638184</v>
+        <v>24.947</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -4099,7 +4117,7 @@
         <v>0.112</v>
       </c>
       <c r="B114">
-        <v>26.1500301361084</v>
+        <v>26.15</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -4107,7 +4125,7 @@
         <v>0.113</v>
       </c>
       <c r="B115">
-        <v>28.66845893859863</v>
+        <v>28.668</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -4115,7 +4133,7 @@
         <v>0.114</v>
       </c>
       <c r="B116">
-        <v>27.84319496154785</v>
+        <v>27.843</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -4123,7 +4141,7 @@
         <v>0.115</v>
       </c>
       <c r="B117">
-        <v>27.01792907714844</v>
+        <v>27.018</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -4131,7 +4149,7 @@
         <v>0.116</v>
       </c>
       <c r="B118">
-        <v>27.7203254699707</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -4139,7 +4157,7 @@
         <v>0.117</v>
       </c>
       <c r="B119">
-        <v>28.45389366149902</v>
+        <v>28.454</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -4147,7 +4165,7 @@
         <v>0.118</v>
       </c>
       <c r="B120">
-        <v>29.18746185302734</v>
+        <v>29.187</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -4155,7 +4173,7 @@
         <v>0.119</v>
       </c>
       <c r="B121">
-        <v>29.92102813720703</v>
+        <v>29.921</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -4163,7 +4181,7 @@
         <v>0.12</v>
       </c>
       <c r="B122">
-        <v>30.46478652954102</v>
+        <v>30.465</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -4171,7 +4189,7 @@
         <v>0.121</v>
       </c>
       <c r="B123">
-        <v>30.93472862243652</v>
+        <v>30.935</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -4179,7 +4197,7 @@
         <v>0.122</v>
       </c>
       <c r="B124">
-        <v>31.40467071533203</v>
+        <v>31.405</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -4187,7 +4205,7 @@
         <v>0.123</v>
       </c>
       <c r="B125">
-        <v>31.87461471557617</v>
+        <v>31.875</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -4195,7 +4213,7 @@
         <v>0.124</v>
       </c>
       <c r="B126">
-        <v>31.40603446960449</v>
+        <v>31.406</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -4203,7 +4221,7 @@
         <v>0.125</v>
       </c>
       <c r="B127">
-        <v>29.83574104309082</v>
+        <v>29.836</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -4211,7 +4229,7 @@
         <v>0.126</v>
       </c>
       <c r="B128">
-        <v>28.26544761657715</v>
+        <v>28.265</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -4219,7 +4237,7 @@
         <v>0.127</v>
       </c>
       <c r="B129">
-        <v>26.69515419006348</v>
+        <v>26.695</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -4227,7 +4245,7 @@
         <v>0.128</v>
       </c>
       <c r="B130">
-        <v>25.37531089782715</v>
+        <v>25.375</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -4235,7 +4253,7 @@
         <v>0.129</v>
       </c>
       <c r="B131">
-        <v>25.05724143981934</v>
+        <v>25.057</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -4243,7 +4261,7 @@
         <v>0.13</v>
       </c>
       <c r="B132">
-        <v>24.73917007446289</v>
+        <v>24.739</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -4251,7 +4269,7 @@
         <v>0.131</v>
       </c>
       <c r="B133">
-        <v>24.42109870910645</v>
+        <v>24.421</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -4259,7 +4277,7 @@
         <v>0.132</v>
       </c>
       <c r="B134">
-        <v>24.10302925109863</v>
+        <v>24.103</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -4267,7 +4285,7 @@
         <v>0.133</v>
       </c>
       <c r="B135">
-        <v>23.78495788574219</v>
+        <v>23.785</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -4275,7 +4293,7 @@
         <v>0.134</v>
       </c>
       <c r="B136">
-        <v>23.98990440368652</v>
+        <v>23.99</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -4283,7 +4301,7 @@
         <v>0.135</v>
       </c>
       <c r="B137">
-        <v>24.67762565612793</v>
+        <v>24.678</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -4291,7 +4309,7 @@
         <v>0.136</v>
       </c>
       <c r="B138">
-        <v>25.3653450012207</v>
+        <v>25.365</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -4299,7 +4317,7 @@
         <v>0.137</v>
       </c>
       <c r="B139">
-        <v>26.05306625366211</v>
+        <v>26.053</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -4307,7 +4325,7 @@
         <v>0.138</v>
       </c>
       <c r="B140">
-        <v>26.74078750610352</v>
+        <v>26.741</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -4315,7 +4333,7 @@
         <v>0.139</v>
       </c>
       <c r="B141">
-        <v>27.42850875854492</v>
+        <v>27.429</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -4323,7 +4341,7 @@
         <v>0.14</v>
       </c>
       <c r="B142">
-        <v>27.59991645812988</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -4331,7 +4349,7 @@
         <v>0.141</v>
       </c>
       <c r="B143">
-        <v>27.67298698425293</v>
+        <v>27.673</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -4339,7 +4357,7 @@
         <v>0.142</v>
       </c>
       <c r="B144">
-        <v>27.74605560302734</v>
+        <v>27.746</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -4347,7 +4365,7 @@
         <v>0.143</v>
       </c>
       <c r="B145">
-        <v>27.81912612915039</v>
+        <v>27.819</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -4355,7 +4373,7 @@
         <v>0.144</v>
       </c>
       <c r="B146">
-        <v>27.89219665527344</v>
+        <v>27.892</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -4363,7 +4381,7 @@
         <v>0.145</v>
       </c>
       <c r="B147">
-        <v>27.96526718139648</v>
+        <v>27.965</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -4371,7 +4389,7 @@
         <v>0.146</v>
       </c>
       <c r="B148">
-        <v>28.03833770751953</v>
+        <v>28.038</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -4379,7 +4397,7 @@
         <v>0.147</v>
       </c>
       <c r="B149">
-        <v>28.11140823364258</v>
+        <v>28.111</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -4387,7 +4405,7 @@
         <v>0.148</v>
       </c>
       <c r="B150">
-        <v>28.18447875976562</v>
+        <v>28.184</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -4395,7 +4413,7 @@
         <v>0.149</v>
       </c>
       <c r="B151">
-        <v>28.25754737854004</v>
+        <v>28.258</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -4403,7 +4421,7 @@
         <v>0.15</v>
       </c>
       <c r="B152">
-        <v>28.33061790466309</v>
+        <v>28.331</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -4411,7 +4429,7 @@
         <v>0.151</v>
       </c>
       <c r="B153">
-        <v>28.45114326477051</v>
+        <v>28.451</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -4419,7 +4437,7 @@
         <v>0.152</v>
       </c>
       <c r="B154">
-        <v>28.62307167053223</v>
+        <v>28.623</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -4427,7 +4445,7 @@
         <v>0.153</v>
       </c>
       <c r="B155">
-        <v>28.79500198364258</v>
+        <v>28.795</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -4435,7 +4453,7 @@
         <v>0.154</v>
       </c>
       <c r="B156">
-        <v>28.96693229675293</v>
+        <v>28.967</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -4443,7 +4461,7 @@
         <v>0.155</v>
       </c>
       <c r="B157">
-        <v>29.13886260986328</v>
+        <v>29.139</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -4451,7 +4469,7 @@
         <v>0.156</v>
       </c>
       <c r="B158">
-        <v>29.31079292297363</v>
+        <v>29.311</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -4459,7 +4477,7 @@
         <v>0.157</v>
       </c>
       <c r="B159">
-        <v>29.48272323608398</v>
+        <v>29.483</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -4467,7 +4485,7 @@
         <v>0.158</v>
       </c>
       <c r="B160">
-        <v>29.65465354919434</v>
+        <v>29.655</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -4475,7 +4493,7 @@
         <v>0.159</v>
       </c>
       <c r="B161">
-        <v>29.82658195495605</v>
+        <v>29.827</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -4483,7 +4501,7 @@
         <v>0.16</v>
       </c>
       <c r="B162">
-        <v>29.99851226806641</v>
+        <v>29.999</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -4491,7 +4509,7 @@
         <v>0.161</v>
       </c>
       <c r="B163">
-        <v>30.17044258117676</v>
+        <v>30.17</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -4499,7 +4517,7 @@
         <v>0.162</v>
       </c>
       <c r="B164">
-        <v>30.34237289428711</v>
+        <v>30.342</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -4507,7 +4525,7 @@
         <v>0.163</v>
       </c>
       <c r="B165">
-        <v>30.51430320739746</v>
+        <v>30.514</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -4515,7 +4533,7 @@
         <v>0.164</v>
       </c>
       <c r="B166">
-        <v>30.17272567749023</v>
+        <v>30.173</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -4523,7 +4541,7 @@
         <v>0.165</v>
       </c>
       <c r="B167">
-        <v>29.6110897064209</v>
+        <v>29.611</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -4531,7 +4549,7 @@
         <v>0.166</v>
       </c>
       <c r="B168">
-        <v>29.04945182800293</v>
+        <v>29.049</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -4539,7 +4557,7 @@
         <v>0.167</v>
       </c>
       <c r="B169">
-        <v>28.48781394958496</v>
+        <v>28.488</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -4547,7 +4565,7 @@
         <v>0.168</v>
       </c>
       <c r="B170">
-        <v>27.92617607116699</v>
+        <v>27.926</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -4555,7 +4573,7 @@
         <v>0.169</v>
       </c>
       <c r="B171">
-        <v>27.36453819274902</v>
+        <v>27.365</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -4563,7 +4581,7 @@
         <v>0.17</v>
       </c>
       <c r="B172">
-        <v>26.80290031433105</v>
+        <v>26.803</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -4571,7 +4589,7 @@
         <v>0.171</v>
       </c>
       <c r="B173">
-        <v>26.24126243591309</v>
+        <v>26.241</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -4579,7 +4597,7 @@
         <v>0.172</v>
       </c>
       <c r="B174">
-        <v>25.78160858154297</v>
+        <v>25.782</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -4587,7 +4605,7 @@
         <v>0.173</v>
       </c>
       <c r="B175">
-        <v>25.78652000427246</v>
+        <v>25.787</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -4595,7 +4613,7 @@
         <v>0.174</v>
       </c>
       <c r="B176">
-        <v>25.79143333435059</v>
+        <v>25.791</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -4603,7 +4621,7 @@
         <v>0.175</v>
       </c>
       <c r="B177">
-        <v>25.79634475708008</v>
+        <v>25.796</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -4611,7 +4629,7 @@
         <v>0.176</v>
       </c>
       <c r="B178">
-        <v>25.80125617980957</v>
+        <v>25.801</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -4619,7 +4637,7 @@
         <v>0.177</v>
       </c>
       <c r="B179">
-        <v>25.8061695098877</v>
+        <v>25.806</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -4627,7 +4645,7 @@
         <v>0.178</v>
       </c>
       <c r="B180">
-        <v>25.81108093261719</v>
+        <v>25.811</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -4635,7 +4653,7 @@
         <v>0.179</v>
       </c>
       <c r="B181">
-        <v>25.81599426269531</v>
+        <v>25.816</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -4643,7 +4661,7 @@
         <v>0.18</v>
       </c>
       <c r="B182">
-        <v>25.8209056854248</v>
+        <v>25.821</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -4651,7 +4669,7 @@
         <v>0.181</v>
       </c>
       <c r="B183">
-        <v>25.82581901550293</v>
+        <v>25.826</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -4659,7 +4677,7 @@
         <v>0.182</v>
       </c>
       <c r="B184">
-        <v>25.90509605407715</v>
+        <v>25.905</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -4667,7 +4685,7 @@
         <v>0.183</v>
       </c>
       <c r="B185">
-        <v>26.2198600769043</v>
+        <v>26.22</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -4675,7 +4693,7 @@
         <v>0.184</v>
       </c>
       <c r="B186">
-        <v>26.53462409973145</v>
+        <v>26.535</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -4683,7 +4701,7 @@
         <v>0.185</v>
       </c>
       <c r="B187">
-        <v>26.84938812255859</v>
+        <v>26.849</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -4691,7 +4709,7 @@
         <v>0.186</v>
       </c>
       <c r="B188">
-        <v>27.16415405273438</v>
+        <v>27.164</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -4699,7 +4717,7 @@
         <v>0.187</v>
       </c>
       <c r="B189">
-        <v>27.47891807556152</v>
+        <v>27.479</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -4707,7 +4725,7 @@
         <v>0.188</v>
       </c>
       <c r="B190">
-        <v>27.79368209838867</v>
+        <v>27.794</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -4715,7 +4733,7 @@
         <v>0.189</v>
       </c>
       <c r="B191">
-        <v>28.10844612121582</v>
+        <v>28.108</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -4723,7 +4741,7 @@
         <v>0.19</v>
       </c>
       <c r="B192">
-        <v>28.42321014404297</v>
+        <v>28.423</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -4731,7 +4749,7 @@
         <v>0.191</v>
       </c>
       <c r="B193">
-        <v>28.73797416687012</v>
+        <v>28.738</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -4739,7 +4757,7 @@
         <v>0.192</v>
       </c>
       <c r="B194">
-        <v>29.05273818969727</v>
+        <v>29.053</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -4747,7 +4765,7 @@
         <v>0.193</v>
       </c>
       <c r="B195">
-        <v>29.36750221252441</v>
+        <v>29.368</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -4755,7 +4773,7 @@
         <v>0.194</v>
       </c>
       <c r="B196">
-        <v>29.68226623535156</v>
+        <v>29.682</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -4763,7 +4781,7 @@
         <v>0.195</v>
       </c>
       <c r="B197">
-        <v>29.99703025817871</v>
+        <v>29.997</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -4771,7 +4789,7 @@
         <v>0.196</v>
       </c>
       <c r="B198">
-        <v>30.31179428100586</v>
+        <v>30.312</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -4779,7 +4797,7 @@
         <v>0.197</v>
       </c>
       <c r="B199">
-        <v>30.62655830383301</v>
+        <v>30.627</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -4787,7 +4805,7 @@
         <v>0.198</v>
       </c>
       <c r="B200">
-        <v>30.94132232666016</v>
+        <v>30.941</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -4795,7 +4813,7 @@
         <v>0.199</v>
       </c>
       <c r="B201">
-        <v>31.2560863494873</v>
+        <v>31.256</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -4803,7 +4821,7 @@
         <v>0.2</v>
       </c>
       <c r="B202">
-        <v>31.57085037231445</v>
+        <v>31.571</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -4811,7 +4829,7 @@
         <v>0.201</v>
       </c>
       <c r="B203">
-        <v>31.2163257598877</v>
+        <v>31.216</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -4819,7 +4837,7 @@
         <v>0.202</v>
       </c>
       <c r="B204">
-        <v>30.67302703857422</v>
+        <v>30.673</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -4827,7 +4845,7 @@
         <v>0.203</v>
       </c>
       <c r="B205">
-        <v>30.12972831726074</v>
+        <v>30.13</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -4835,7 +4853,7 @@
         <v>0.204</v>
       </c>
       <c r="B206">
-        <v>29.58642959594727</v>
+        <v>29.586</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -4843,7 +4861,7 @@
         <v>0.205</v>
       </c>
       <c r="B207">
-        <v>29.04313087463379</v>
+        <v>29.043</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -4851,7 +4869,7 @@
         <v>0.206</v>
       </c>
       <c r="B208">
-        <v>28.49983215332031</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -4859,7 +4877,7 @@
         <v>0.207</v>
       </c>
       <c r="B209">
-        <v>27.9565315246582</v>
+        <v>27.957</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -4867,7 +4885,7 @@
         <v>0.208</v>
       </c>
       <c r="B210">
-        <v>27.41323280334473</v>
+        <v>27.413</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -4875,7 +4893,7 @@
         <v>0.209</v>
       </c>
       <c r="B211">
-        <v>26.86993408203125</v>
+        <v>26.87</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -4883,7 +4901,7 @@
         <v>0.21</v>
       </c>
       <c r="B212">
-        <v>26.32663536071777</v>
+        <v>26.327</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -4891,7 +4909,7 @@
         <v>0.211</v>
       </c>
       <c r="B213">
-        <v>25.7833366394043</v>
+        <v>25.783</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -4899,7 +4917,7 @@
         <v>0.212</v>
       </c>
       <c r="B214">
-        <v>25.24003791809082</v>
+        <v>25.24</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -4907,7 +4925,7 @@
         <v>0.213</v>
       </c>
       <c r="B215">
-        <v>24.69673919677734</v>
+        <v>24.697</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -4915,7 +4933,7 @@
         <v>0.214</v>
       </c>
       <c r="B216">
-        <v>24.15344047546387</v>
+        <v>24.153</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -4923,7 +4941,7 @@
         <v>0.215</v>
       </c>
       <c r="B217">
-        <v>24.18452644348145</v>
+        <v>24.185</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -4931,7 +4949,7 @@
         <v>0.216</v>
       </c>
       <c r="B218">
-        <v>24.63154411315918</v>
+        <v>24.632</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -4939,7 +4957,7 @@
         <v>0.217</v>
       </c>
       <c r="B219">
-        <v>25.07856178283691</v>
+        <v>25.079</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -4947,7 +4965,7 @@
         <v>0.218</v>
       </c>
       <c r="B220">
-        <v>25.52557945251465</v>
+        <v>25.526</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -4955,7 +4973,7 @@
         <v>0.219</v>
       </c>
       <c r="B221">
-        <v>25.97259712219238</v>
+        <v>25.973</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -4963,7 +4981,7 @@
         <v>0.22</v>
       </c>
       <c r="B222">
-        <v>26.41961479187012</v>
+        <v>26.42</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -4971,7 +4989,7 @@
         <v>0.221</v>
       </c>
       <c r="B223">
-        <v>26.86663436889648</v>
+        <v>26.867</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -4979,7 +4997,7 @@
         <v>0.222</v>
       </c>
       <c r="B224">
-        <v>27.31365203857422</v>
+        <v>27.314</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -4987,7 +5005,7 @@
         <v>0.223</v>
       </c>
       <c r="B225">
-        <v>27.76066970825195</v>
+        <v>27.761</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -4995,7 +5013,7 @@
         <v>0.224</v>
       </c>
       <c r="B226">
-        <v>28.20768737792969</v>
+        <v>28.208</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -5003,7 +5021,7 @@
         <v>0.225</v>
       </c>
       <c r="B227">
-        <v>28.79335021972656</v>
+        <v>28.793</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -5011,7 +5029,7 @@
         <v>0.226</v>
       </c>
       <c r="B228">
-        <v>29.45700073242188</v>
+        <v>29.457</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -5019,7 +5037,7 @@
         <v>0.227</v>
       </c>
       <c r="B229">
-        <v>30.12064933776855</v>
+        <v>30.121</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -5027,7 +5045,7 @@
         <v>0.228</v>
       </c>
       <c r="B230">
-        <v>30.78429985046387</v>
+        <v>30.784</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -5035,7 +5053,7 @@
         <v>0.229</v>
       </c>
       <c r="B231">
-        <v>31.44795036315918</v>
+        <v>31.448</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -5043,7 +5061,7 @@
         <v>0.23</v>
       </c>
       <c r="B232">
-        <v>32.11159896850586</v>
+        <v>32.112</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -5051,7 +5069,7 @@
         <v>0.231</v>
       </c>
       <c r="B233">
-        <v>32.77524948120117</v>
+        <v>32.775</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -5059,7 +5077,7 @@
         <v>0.232</v>
       </c>
       <c r="B234">
-        <v>33.43889999389648</v>
+        <v>33.439</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -5067,7 +5085,7 @@
         <v>0.233</v>
       </c>
       <c r="B235">
-        <v>34.1025505065918</v>
+        <v>34.103</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -5075,7 +5093,7 @@
         <v>0.234</v>
       </c>
       <c r="B236">
-        <v>34.76620101928711</v>
+        <v>34.766</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -5083,7 +5101,7 @@
         <v>0.235</v>
       </c>
       <c r="B237">
-        <v>35.42985153198242</v>
+        <v>35.43</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -5091,7 +5109,7 @@
         <v>0.236</v>
       </c>
       <c r="B238">
-        <v>36.09350204467773</v>
+        <v>36.094</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -5099,7 +5117,7 @@
         <v>0.237</v>
       </c>
       <c r="B239">
-        <v>36.75714874267578</v>
+        <v>36.757</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -5107,7 +5125,7 @@
         <v>0.238</v>
       </c>
       <c r="B240">
-        <v>37.42079925537109</v>
+        <v>37.421</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -5115,7 +5133,7 @@
         <v>0.239</v>
       </c>
       <c r="B241">
-        <v>37.52010345458984</v>
+        <v>37.52</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -5123,7 +5141,7 @@
         <v>0.24</v>
       </c>
       <c r="B242">
-        <v>36.90115356445312</v>
+        <v>36.901</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -5131,7 +5149,7 @@
         <v>0.241</v>
       </c>
       <c r="B243">
-        <v>36.28220748901367</v>
+        <v>36.282</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -5139,7 +5157,7 @@
         <v>0.242</v>
       </c>
       <c r="B244">
-        <v>35.66325759887695</v>
+        <v>35.663</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -5147,7 +5165,7 @@
         <v>0.243</v>
       </c>
       <c r="B245">
-        <v>35.0443115234375</v>
+        <v>35.044</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -5155,7 +5173,7 @@
         <v>0.244</v>
       </c>
       <c r="B246">
-        <v>34.42536163330078</v>
+        <v>34.425</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -5163,7 +5181,7 @@
         <v>0.245</v>
       </c>
       <c r="B247">
-        <v>33.80641555786133</v>
+        <v>33.806</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -5171,7 +5189,7 @@
         <v>0.246</v>
       </c>
       <c r="B248">
-        <v>33.18746566772461</v>
+        <v>33.187</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -5179,7 +5197,7 @@
         <v>0.247</v>
       </c>
       <c r="B249">
-        <v>32.56851577758789</v>
+        <v>32.569</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -5187,7 +5205,7 @@
         <v>0.248</v>
       </c>
       <c r="B250">
-        <v>31.94956970214844</v>
+        <v>31.95</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -5195,7 +5213,7 @@
         <v>0.249</v>
       </c>
       <c r="B251">
-        <v>31.33061981201172</v>
+        <v>31.331</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -5203,7 +5221,7 @@
         <v>0.25</v>
       </c>
       <c r="B252">
-        <v>30.71167182922363</v>
+        <v>30.712</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -5211,7 +5229,7 @@
         <v>0.251</v>
       </c>
       <c r="B253">
-        <v>30.09272384643555</v>
+        <v>30.093</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -5219,7 +5237,7 @@
         <v>0.252</v>
       </c>
       <c r="B254">
-        <v>29.47377586364746</v>
+        <v>29.474</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -5227,7 +5245,7 @@
         <v>0.253</v>
       </c>
       <c r="B255">
-        <v>28.85482788085938</v>
+        <v>28.855</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -5235,7 +5253,7 @@
         <v>0.254</v>
       </c>
       <c r="B256">
-        <v>28.23587989807129</v>
+        <v>28.236</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -5243,7 +5261,7 @@
         <v>0.255</v>
       </c>
       <c r="B257">
-        <v>27.6169319152832</v>
+        <v>27.617</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -5251,7 +5269,7 @@
         <v>0.256</v>
       </c>
       <c r="B258">
-        <v>27.71150779724121</v>
+        <v>27.712</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -5259,7 +5277,7 @@
         <v>0.257</v>
       </c>
       <c r="B259">
-        <v>28.87633323669434</v>
+        <v>28.876</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -5267,7 +5285,7 @@
         <v>0.258</v>
       </c>
       <c r="B260">
-        <v>30.04116058349609</v>
+        <v>30.041</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -5275,7 +5293,7 @@
         <v>0.259</v>
       </c>
       <c r="B261">
-        <v>31.20598602294922</v>
+        <v>31.206</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -5283,7 +5301,7 @@
         <v>0.26</v>
       </c>
       <c r="B262">
-        <v>32.37081146240234</v>
+        <v>32.371</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -5291,7 +5309,7 @@
         <v>0.261</v>
       </c>
       <c r="B263">
-        <v>33.53563690185547</v>
+        <v>33.536</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -5299,7 +5317,7 @@
         <v>0.262</v>
       </c>
       <c r="B264">
-        <v>34.70046234130859</v>
+        <v>34.7</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -5307,7 +5325,7 @@
         <v>0.263</v>
       </c>
       <c r="B265">
-        <v>35.86528778076172</v>
+        <v>35.865</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -5315,7 +5333,7 @@
         <v>0.264</v>
       </c>
       <c r="B266">
-        <v>37.03011322021484</v>
+        <v>37.03</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -5323,7 +5341,7 @@
         <v>0.265</v>
       </c>
       <c r="B267">
-        <v>38.19493865966797</v>
+        <v>38.195</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -5331,7 +5349,7 @@
         <v>0.266</v>
       </c>
       <c r="B268">
-        <v>39.35976791381836</v>
+        <v>39.36</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -5339,7 +5357,7 @@
         <v>0.267</v>
       </c>
       <c r="B269">
-        <v>40.45948028564453</v>
+        <v>40.459</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -5347,7 +5365,7 @@
         <v>0.268</v>
       </c>
       <c r="B270">
-        <v>39.99682998657227</v>
+        <v>39.997</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -5355,7 +5373,7 @@
         <v>0.269</v>
       </c>
       <c r="B271">
-        <v>39.53418350219727</v>
+        <v>39.534</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -5363,7 +5381,7 @@
         <v>0.27</v>
       </c>
       <c r="B272">
-        <v>39.071533203125</v>
+        <v>39.072</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -5371,7 +5389,7 @@
         <v>0.271</v>
       </c>
       <c r="B273">
-        <v>38.60888671875</v>
+        <v>38.609</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -5379,7 +5397,7 @@
         <v>0.272</v>
       </c>
       <c r="B274">
-        <v>38.146240234375</v>
+        <v>38.146</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -5387,7 +5405,7 @@
         <v>0.273</v>
       </c>
       <c r="B275">
-        <v>37.68358993530273</v>
+        <v>37.684</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -5395,7 +5413,7 @@
         <v>0.274</v>
       </c>
       <c r="B276">
-        <v>37.22094345092773</v>
+        <v>37.221</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -5403,7 +5421,7 @@
         <v>0.275</v>
       </c>
       <c r="B277">
-        <v>36.75829315185547</v>
+        <v>36.758</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -5411,7 +5429,7 @@
         <v>0.276</v>
       </c>
       <c r="B278">
-        <v>36.29564666748047</v>
+        <v>36.296</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -5419,7 +5437,7 @@
         <v>0.277</v>
       </c>
       <c r="B279">
-        <v>35.8329963684082</v>
+        <v>35.833</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -5427,7 +5445,7 @@
         <v>0.278</v>
       </c>
       <c r="B280">
-        <v>35.3703498840332</v>
+        <v>35.37</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -5435,7 +5453,7 @@
         <v>0.279</v>
       </c>
       <c r="B281">
-        <v>34.90769958496094</v>
+        <v>34.908</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -5443,7 +5461,7 @@
         <v>0.28</v>
       </c>
       <c r="B282">
-        <v>34.44505310058594</v>
+        <v>34.445</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -5451,7 +5469,7 @@
         <v>0.281</v>
       </c>
       <c r="B283">
-        <v>33.98240661621094</v>
+        <v>33.982</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -5459,7 +5477,7 @@
         <v>0.282</v>
       </c>
       <c r="B284">
-        <v>33.51975631713867</v>
+        <v>33.52</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -5467,7 +5485,7 @@
         <v>0.283</v>
       </c>
       <c r="B285">
-        <v>33.07605361938477</v>
+        <v>33.076</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -5475,7 +5493,7 @@
         <v>0.284</v>
       </c>
       <c r="B286">
-        <v>32.65850830078125</v>
+        <v>32.659</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -5483,7 +5501,7 @@
         <v>0.285</v>
       </c>
       <c r="B287">
-        <v>32.24096298217773</v>
+        <v>32.241</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -5491,7 +5509,7 @@
         <v>0.286</v>
       </c>
       <c r="B288">
-        <v>31.82341957092285</v>
+        <v>31.823</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -5499,7 +5517,7 @@
         <v>0.287</v>
       </c>
       <c r="B289">
-        <v>31.40587615966797</v>
+        <v>31.406</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -5507,7 +5525,7 @@
         <v>0.288</v>
       </c>
       <c r="B290">
-        <v>30.98833084106445</v>
+        <v>30.988</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -5515,7 +5533,7 @@
         <v>0.289</v>
       </c>
       <c r="B291">
-        <v>30.57078742980957</v>
+        <v>30.571</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -5523,7 +5541,7 @@
         <v>0.29</v>
       </c>
       <c r="B292">
-        <v>30.15324211120605</v>
+        <v>30.153</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -5531,7 +5549,7 @@
         <v>0.291</v>
       </c>
       <c r="B293">
-        <v>29.73569869995117</v>
+        <v>29.736</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -5539,7 +5557,7 @@
         <v>0.292</v>
       </c>
       <c r="B294">
-        <v>29.31815528869629</v>
+        <v>29.318</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -5547,7 +5565,7 @@
         <v>0.293</v>
       </c>
       <c r="B295">
-        <v>28.90060997009277</v>
+        <v>28.901</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -5555,7 +5573,7 @@
         <v>0.294</v>
       </c>
       <c r="B296">
-        <v>28.48306655883789</v>
+        <v>28.483</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -5563,7 +5581,7 @@
         <v>0.295</v>
       </c>
       <c r="B297">
-        <v>28.06552124023438</v>
+        <v>28.066</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -5571,7 +5589,7 @@
         <v>0.296</v>
       </c>
       <c r="B298">
-        <v>27.64797782897949</v>
+        <v>27.648</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -5579,7 +5597,7 @@
         <v>0.297</v>
       </c>
       <c r="B299">
-        <v>27.23043441772461</v>
+        <v>27.23</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -5587,7 +5605,7 @@
         <v>0.298</v>
       </c>
       <c r="B300">
-        <v>26.81288909912109</v>
+        <v>26.813</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -5595,7 +5613,7 @@
         <v>0.299</v>
       </c>
       <c r="B301">
-        <v>26.39534568786621</v>
+        <v>26.395</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -5603,7 +5621,7 @@
         <v>0.3</v>
       </c>
       <c r="B302">
-        <v>25.9778003692627</v>
+        <v>25.978</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -5611,7 +5629,7 @@
         <v>0.301</v>
       </c>
       <c r="B303">
-        <v>25.56025695800781</v>
+        <v>25.56</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -5619,7 +5637,7 @@
         <v>0.302</v>
       </c>
       <c r="B304">
-        <v>25.1427116394043</v>
+        <v>25.143</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -5627,7 +5645,7 @@
         <v>0.303</v>
       </c>
       <c r="B305">
-        <v>25.20596504211426</v>
+        <v>25.206</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -5635,7 +5653,7 @@
         <v>0.304</v>
       </c>
       <c r="B306">
-        <v>25.67877388000488</v>
+        <v>25.679</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -5643,7 +5661,7 @@
         <v>0.305</v>
       </c>
       <c r="B307">
-        <v>26.15158271789551</v>
+        <v>26.152</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -5651,7 +5669,7 @@
         <v>0.306</v>
       </c>
       <c r="B308">
-        <v>26.6243896484375</v>
+        <v>26.624</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -5659,7 +5677,7 @@
         <v>0.307</v>
       </c>
       <c r="B309">
-        <v>27.09719848632812</v>
+        <v>27.097</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -5667,7 +5685,7 @@
         <v>0.308</v>
       </c>
       <c r="B310">
-        <v>27.57000732421875</v>
+        <v>27.57</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -5675,7 +5693,7 @@
         <v>0.309</v>
       </c>
       <c r="B311">
-        <v>28.04281425476074</v>
+        <v>28.043</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -5683,7 +5701,7 @@
         <v>0.31</v>
       </c>
       <c r="B312">
-        <v>28.51562309265137</v>
+        <v>28.516</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -5691,7 +5709,7 @@
         <v>0.311</v>
       </c>
       <c r="B313">
-        <v>28.98843193054199</v>
+        <v>28.988</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -5699,7 +5717,7 @@
         <v>0.312</v>
       </c>
       <c r="B314">
-        <v>29.46123886108398</v>
+        <v>29.461</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -5707,7 +5725,7 @@
         <v>0.313</v>
       </c>
       <c r="B315">
-        <v>29.93404769897461</v>
+        <v>29.934</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -5715,7 +5733,7 @@
         <v>0.314</v>
       </c>
       <c r="B316">
-        <v>30.36919784545898</v>
+        <v>30.369</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -5723,7 +5741,7 @@
         <v>0.315</v>
       </c>
       <c r="B317">
-        <v>30.6328239440918</v>
+        <v>30.633</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -5731,7 +5749,7 @@
         <v>0.316</v>
       </c>
       <c r="B318">
-        <v>30.89645004272461</v>
+        <v>30.896</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -5739,7 +5757,7 @@
         <v>0.317</v>
       </c>
       <c r="B319">
-        <v>31.16007614135742</v>
+        <v>31.16</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -5747,7 +5765,7 @@
         <v>0.318</v>
       </c>
       <c r="B320">
-        <v>31.42370223999023</v>
+        <v>31.424</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -5755,7 +5773,7 @@
         <v>0.319</v>
       </c>
       <c r="B321">
-        <v>31.68732833862305</v>
+        <v>31.687</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -5763,7 +5781,7 @@
         <v>0.32</v>
       </c>
       <c r="B322">
-        <v>31.95095443725586</v>
+        <v>31.951</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -5771,7 +5789,7 @@
         <v>0.321</v>
       </c>
       <c r="B323">
-        <v>32.21458053588867</v>
+        <v>32.215</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -5779,7 +5797,7 @@
         <v>0.322</v>
       </c>
       <c r="B324">
-        <v>32.47820663452148</v>
+        <v>32.478</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -5787,7 +5805,7 @@
         <v>0.323</v>
       </c>
       <c r="B325">
-        <v>32.7418327331543</v>
+        <v>32.742</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -5795,7 +5813,7 @@
         <v>0.324</v>
       </c>
       <c r="B326">
-        <v>33.00545883178711</v>
+        <v>33.005</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -5803,7 +5821,7 @@
         <v>0.325</v>
       </c>
       <c r="B327">
-        <v>33.26908493041992</v>
+        <v>33.269</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -5811,7 +5829,7 @@
         <v>0.326</v>
       </c>
       <c r="B328">
-        <v>33.53271102905273</v>
+        <v>33.533</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -5819,7 +5837,7 @@
         <v>0.327</v>
       </c>
       <c r="B329">
-        <v>33.51206207275391</v>
+        <v>33.512</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -5827,7 +5845,7 @@
         <v>0.328</v>
       </c>
       <c r="B330">
-        <v>33.06504440307617</v>
+        <v>33.065</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -5835,7 +5853,7 @@
         <v>0.329</v>
       </c>
       <c r="B331">
-        <v>32.61802673339844</v>
+        <v>32.618</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -5843,7 +5861,7 @@
         <v>0.33</v>
       </c>
       <c r="B332">
-        <v>32.1710090637207</v>
+        <v>32.171</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -5851,7 +5869,7 @@
         <v>0.331</v>
       </c>
       <c r="B333">
-        <v>31.72399139404297</v>
+        <v>31.724</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -5859,7 +5877,7 @@
         <v>0.332</v>
       </c>
       <c r="B334">
-        <v>31.2769718170166</v>
+        <v>31.277</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -5867,7 +5885,7 @@
         <v>0.333</v>
       </c>
       <c r="B335">
-        <v>30.82995414733887</v>
+        <v>30.83</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -5875,7 +5893,7 @@
         <v>0.334</v>
       </c>
       <c r="B336">
-        <v>30.38293647766113</v>
+        <v>30.383</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -5883,7 +5901,7 @@
         <v>0.335</v>
       </c>
       <c r="B337">
-        <v>29.9359188079834</v>
+        <v>29.936</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -5891,7 +5909,7 @@
         <v>0.336</v>
       </c>
       <c r="B338">
-        <v>29.48890113830566</v>
+        <v>29.489</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -5899,7 +5917,7 @@
         <v>0.337</v>
       </c>
       <c r="B339">
-        <v>29.04188346862793</v>
+        <v>29.042</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -5907,7 +5925,7 @@
         <v>0.338</v>
       </c>
       <c r="B340">
-        <v>28.5948657989502</v>
+        <v>28.595</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -5915,7 +5933,7 @@
         <v>0.339</v>
       </c>
       <c r="B341">
-        <v>28.14784812927246</v>
+        <v>28.148</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -5923,7 +5941,7 @@
         <v>0.34</v>
       </c>
       <c r="B342">
-        <v>27.70083045959473</v>
+        <v>27.701</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -5931,7 +5949,7 @@
         <v>0.341</v>
       </c>
       <c r="B343">
-        <v>27.25381278991699</v>
+        <v>27.254</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -5939,7 +5957,7 @@
         <v>0.342</v>
       </c>
       <c r="B344">
-        <v>26.80679512023926</v>
+        <v>26.807</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -5947,7 +5965,7 @@
         <v>0.343</v>
       </c>
       <c r="B345">
-        <v>26.35977745056152</v>
+        <v>26.36</v>
       </c>
     </row>
   </sheetData>
